--- a/word_features/半年/CHA,2020-1~2020-7,主题_词矩阵.xlsx
+++ b/word_features/半年/CHA,2020-1~2020-7,主题_词矩阵.xlsx
@@ -14,26 +14,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+  <si>
+    <t>一策</t>
+  </si>
+  <si>
+    <t>下线</t>
+  </si>
+  <si>
+    <t>专员</t>
+  </si>
+  <si>
+    <t>专案组</t>
+  </si>
+  <si>
+    <t>专用</t>
+  </si>
   <si>
     <t>专项</t>
   </si>
   <si>
-    <t>世界</t>
-  </si>
-  <si>
     <t>业务</t>
   </si>
   <si>
-    <t>中央</t>
-  </si>
-  <si>
-    <t>中心</t>
+    <t>事事</t>
+  </si>
+  <si>
+    <t>事项</t>
   </si>
   <si>
     <t>互联网</t>
   </si>
   <si>
+    <t>交代</t>
+  </si>
+  <si>
     <t>产业</t>
   </si>
   <si>
@@ -43,64 +58,91 @@
     <t>产品</t>
   </si>
   <si>
+    <t>产品质量</t>
+  </si>
+  <si>
     <t>产量</t>
   </si>
   <si>
-    <t>人员</t>
-  </si>
-  <si>
-    <t>人工智能</t>
-  </si>
-  <si>
-    <t>人才</t>
+    <t>人力资源</t>
+  </si>
+  <si>
+    <t>人民</t>
   </si>
   <si>
     <t>人类</t>
   </si>
   <si>
+    <t>仪征</t>
+  </si>
+  <si>
     <t>价格</t>
   </si>
   <si>
     <t>企业</t>
   </si>
   <si>
-    <t>优势</t>
-  </si>
-  <si>
-    <t>体系</t>
+    <t>企业名单</t>
+  </si>
+  <si>
+    <t>企业家</t>
+  </si>
+  <si>
+    <t>优惠政策</t>
+  </si>
+  <si>
+    <t>伪劣</t>
+  </si>
+  <si>
+    <t>体温</t>
+  </si>
+  <si>
+    <t>体育课</t>
+  </si>
+  <si>
+    <t>供应商</t>
   </si>
   <si>
     <t>供应链</t>
   </si>
   <si>
-    <t>信心</t>
-  </si>
-  <si>
-    <t>信息</t>
+    <t>保税</t>
+  </si>
+  <si>
+    <t>保税区</t>
+  </si>
+  <si>
+    <t>保险</t>
+  </si>
+  <si>
+    <t>信厅</t>
+  </si>
+  <si>
+    <t>信局</t>
+  </si>
+  <si>
+    <t>信用</t>
+  </si>
+  <si>
+    <t>信用贷款</t>
   </si>
   <si>
     <t>信贷</t>
   </si>
   <si>
+    <t>假劣</t>
+  </si>
+  <si>
     <t>儿童</t>
   </si>
   <si>
-    <t>元件</t>
-  </si>
-  <si>
     <t>党员</t>
   </si>
   <si>
-    <t>全国</t>
-  </si>
-  <si>
-    <t>全市</t>
-  </si>
-  <si>
-    <t>全球</t>
-  </si>
-  <si>
-    <t>全球化</t>
+    <t>入境</t>
+  </si>
+  <si>
+    <t>全力</t>
   </si>
   <si>
     <t>全省</t>
@@ -109,16 +151,25 @@
     <t>公众</t>
   </si>
   <si>
-    <t>公共卫生</t>
-  </si>
-  <si>
     <t>公司</t>
   </si>
   <si>
-    <t>关键</t>
-  </si>
-  <si>
-    <t>决策</t>
+    <t>公安机关</t>
+  </si>
+  <si>
+    <t>公职人员</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>农商</t>
+  </si>
+  <si>
+    <t>冠桦</t>
+  </si>
+  <si>
+    <t>出厂</t>
   </si>
   <si>
     <t>创业</t>
@@ -127,7 +178,13 @@
     <t>利率</t>
   </si>
   <si>
-    <t>制度</t>
+    <t>利用外资</t>
+  </si>
+  <si>
+    <t>利用率</t>
+  </si>
+  <si>
+    <t>制衣</t>
   </si>
   <si>
     <t>制造业</t>
@@ -136,40 +193,79 @@
     <t>剧烈运动</t>
   </si>
   <si>
+    <t>副行长</t>
+  </si>
+  <si>
     <t>力度</t>
   </si>
   <si>
-    <t>力量</t>
-  </si>
-  <si>
     <t>办公</t>
   </si>
   <si>
     <t>办理</t>
   </si>
   <si>
+    <t>办税</t>
+  </si>
+  <si>
+    <t>加班加点</t>
+  </si>
+  <si>
+    <t>务工人员</t>
+  </si>
+  <si>
     <t>助力</t>
   </si>
   <si>
+    <t>劳保用品</t>
+  </si>
+  <si>
+    <t>劳动力</t>
+  </si>
+  <si>
     <t>医用</t>
   </si>
   <si>
-    <t>医疗</t>
-  </si>
-  <si>
     <t>医疗器械</t>
   </si>
   <si>
+    <t>医疗队</t>
+  </si>
+  <si>
+    <t>医药</t>
+  </si>
+  <si>
     <t>医院</t>
   </si>
   <si>
     <t>协同</t>
   </si>
   <si>
-    <t>危机</t>
-  </si>
-  <si>
-    <t>压力</t>
+    <t>协议</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>卫生用品</t>
+  </si>
+  <si>
+    <t>厂区</t>
+  </si>
+  <si>
+    <t>厂名</t>
+  </si>
+  <si>
+    <t>厂址</t>
+  </si>
+  <si>
+    <t>厂家</t>
+  </si>
+  <si>
+    <t>厂房</t>
   </si>
   <si>
     <t>原料</t>
@@ -178,46 +274,73 @@
     <t>原材料</t>
   </si>
   <si>
+    <t>厢式</t>
+  </si>
+  <si>
+    <t>发放贷款</t>
+  </si>
+  <si>
+    <t>发货</t>
+  </si>
+  <si>
+    <t>变形</t>
+  </si>
+  <si>
     <t>口罩</t>
   </si>
   <si>
+    <t>合格</t>
+  </si>
+  <si>
     <t>员工</t>
   </si>
   <si>
-    <t>品牌</t>
-  </si>
-  <si>
     <t>售价</t>
   </si>
   <si>
+    <t>商事</t>
+  </si>
+  <si>
+    <t>商贸</t>
+  </si>
+  <si>
+    <t>团体</t>
+  </si>
+  <si>
     <t>园区</t>
   </si>
   <si>
-    <t>国家</t>
-  </si>
-  <si>
     <t>国家标准</t>
   </si>
   <si>
+    <t>国计民生</t>
+  </si>
+  <si>
     <t>国际</t>
   </si>
   <si>
-    <t>地区</t>
-  </si>
-  <si>
-    <t>地方</t>
+    <t>场合</t>
   </si>
   <si>
     <t>场所</t>
   </si>
   <si>
-    <t>场景</t>
-  </si>
-  <si>
-    <t>基础</t>
-  </si>
-  <si>
-    <t>基础设施</t>
+    <t>垃圾</t>
+  </si>
+  <si>
+    <t>垃圾桶</t>
+  </si>
+  <si>
+    <t>塑料袋</t>
+  </si>
+  <si>
+    <t>增值税</t>
+  </si>
+  <si>
+    <t>备案</t>
+  </si>
+  <si>
+    <t>复产率</t>
   </si>
   <si>
     <t>外层</t>
@@ -232,28 +355,94 @@
     <t>外资</t>
   </si>
   <si>
+    <t>外资企业</t>
+  </si>
+  <si>
     <t>失业</t>
   </si>
   <si>
+    <t>嫌疑人</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>孩子</t>
+  </si>
+  <si>
+    <t>宏威</t>
+  </si>
+  <si>
     <t>实体</t>
   </si>
   <si>
     <t>客户</t>
   </si>
   <si>
+    <t>家规</t>
+  </si>
+  <si>
+    <t>容器</t>
+  </si>
+  <si>
     <t>密集</t>
   </si>
   <si>
-    <t>岗位</t>
+    <t>对冲</t>
+  </si>
+  <si>
+    <t>小微</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+  </si>
+  <si>
+    <t>居民小区</t>
+  </si>
+  <si>
+    <t>岗率</t>
   </si>
   <si>
     <t>工业</t>
   </si>
   <si>
+    <t>工人</t>
+  </si>
+  <si>
+    <t>工信厅</t>
+  </si>
+  <si>
+    <t>工信部</t>
+  </si>
+  <si>
+    <t>工商户</t>
+  </si>
+  <si>
     <t>市场</t>
   </si>
   <si>
-    <t>干部</t>
+    <t>市场主体</t>
+  </si>
+  <si>
+    <t>市场供应</t>
+  </si>
+  <si>
+    <t>市场监管</t>
+  </si>
+  <si>
+    <t>市工</t>
+  </si>
+  <si>
+    <t>市民</t>
+  </si>
+  <si>
+    <t>市面上</t>
+  </si>
+  <si>
+    <t>布料</t>
   </si>
   <si>
     <t>平台</t>
@@ -262,10 +451,43 @@
     <t>平面</t>
   </si>
   <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>废物</t>
+  </si>
+  <si>
     <t>建议</t>
   </si>
   <si>
-    <t>形势</t>
+    <t>开发区</t>
+  </si>
+  <si>
+    <t>开学</t>
+  </si>
+  <si>
+    <t>开工率</t>
+  </si>
+  <si>
+    <t>开拓市场</t>
+  </si>
+  <si>
+    <t>异味</t>
+  </si>
+  <si>
+    <t>弄脏</t>
+  </si>
+  <si>
+    <t>强制措施</t>
+  </si>
+  <si>
+    <t>影院</t>
+  </si>
+  <si>
+    <t>微孔</t>
+  </si>
+  <si>
+    <t>心理</t>
   </si>
   <si>
     <t>心肺</t>
@@ -274,48 +496,66 @@
     <t>志愿</t>
   </si>
   <si>
+    <t>志愿者</t>
+  </si>
+  <si>
+    <t>急事</t>
+  </si>
+  <si>
     <t>性能</t>
   </si>
   <si>
-    <t>总书记</t>
+    <t>总投资额</t>
+  </si>
+  <si>
+    <t>总经理</t>
   </si>
   <si>
     <t>患者</t>
   </si>
   <si>
-    <t>情况</t>
-  </si>
-  <si>
     <t>成人</t>
   </si>
   <si>
+    <t>成品</t>
+  </si>
+  <si>
     <t>成本</t>
   </si>
   <si>
-    <t>战略</t>
-  </si>
-  <si>
-    <t>技术</t>
+    <t>房租</t>
+  </si>
+  <si>
+    <t>执法人员</t>
+  </si>
+  <si>
+    <t>投放市场</t>
   </si>
   <si>
     <t>招商</t>
   </si>
   <si>
+    <t>招商引资</t>
+  </si>
+  <si>
     <t>指导</t>
   </si>
   <si>
     <t>措施</t>
   </si>
   <si>
-    <t>政务</t>
-  </si>
-  <si>
-    <t>政府</t>
+    <t>摇号</t>
+  </si>
+  <si>
+    <t>收运</t>
   </si>
   <si>
     <t>政策</t>
   </si>
   <si>
+    <t>政策性</t>
+  </si>
+  <si>
     <t>政策措施</t>
   </si>
   <si>
@@ -325,7 +565,7 @@
     <t>效率</t>
   </si>
   <si>
-    <t>数字</t>
+    <t>教学</t>
   </si>
   <si>
     <t>数字化</t>
@@ -334,94 +574,217 @@
     <t>数据</t>
   </si>
   <si>
+    <t>数科</t>
+  </si>
+  <si>
     <t>新冠</t>
   </si>
   <si>
-    <t>方式</t>
-  </si>
-  <si>
-    <t>方案</t>
+    <t>方面</t>
+  </si>
+  <si>
+    <t>旅客</t>
+  </si>
+  <si>
+    <t>无尘</t>
+  </si>
+  <si>
+    <t>无菌</t>
   </si>
   <si>
     <t>日产量</t>
   </si>
   <si>
+    <t>日用品</t>
+  </si>
+  <si>
     <t>时代</t>
   </si>
   <si>
+    <t>景区</t>
+  </si>
+  <si>
     <t>智能</t>
   </si>
   <si>
-    <t>月份</t>
-  </si>
-  <si>
     <t>有序</t>
   </si>
   <si>
+    <t>有限公司</t>
+  </si>
+  <si>
+    <t>朋友圈</t>
+  </si>
+  <si>
     <t>服务业</t>
   </si>
   <si>
-    <t>机制</t>
+    <t>服装厂</t>
+  </si>
+  <si>
+    <t>期限</t>
+  </si>
+  <si>
+    <t>木棉</t>
+  </si>
+  <si>
+    <t>本站</t>
   </si>
   <si>
     <t>机器</t>
   </si>
   <si>
-    <t>机遇</t>
-  </si>
-  <si>
     <t>材料</t>
   </si>
   <si>
+    <t>材料厂</t>
+  </si>
+  <si>
     <t>材质</t>
   </si>
   <si>
-    <t>染色</t>
+    <t>条熔</t>
   </si>
   <si>
     <t>标准</t>
   </si>
   <si>
-    <t>核心</t>
+    <t>标识</t>
+  </si>
+  <si>
+    <t>样品</t>
+  </si>
+  <si>
+    <t>核酸</t>
+  </si>
+  <si>
+    <t>案件</t>
   </si>
   <si>
     <t>棉布</t>
   </si>
   <si>
+    <t>棉纱</t>
+  </si>
+  <si>
     <t>模式</t>
   </si>
   <si>
+    <t>民众</t>
+  </si>
+  <si>
     <t>民生</t>
   </si>
   <si>
-    <t>气管</t>
+    <t>民用</t>
   </si>
   <si>
     <t>气阀</t>
   </si>
   <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>油性</t>
+  </si>
+  <si>
+    <t>注册证</t>
+  </si>
+  <si>
+    <t>洁净车间</t>
+  </si>
+  <si>
+    <t>流动资金</t>
+  </si>
+  <si>
+    <t>流水线</t>
+  </si>
+  <si>
+    <t>涉企</t>
+  </si>
+  <si>
+    <t>涉案人员</t>
+  </si>
+  <si>
+    <t>清运</t>
+  </si>
+  <si>
+    <t>渡过难关</t>
+  </si>
+  <si>
+    <t>游客</t>
+  </si>
+  <si>
+    <t>滤材</t>
+  </si>
+  <si>
+    <t>点对点</t>
+  </si>
+  <si>
+    <t>熔喷料</t>
+  </si>
+  <si>
+    <t>熔融指数</t>
+  </si>
+  <si>
+    <t>版权所有</t>
+  </si>
+  <si>
+    <t>物料</t>
+  </si>
+  <si>
     <t>物流</t>
   </si>
   <si>
     <t>物资</t>
   </si>
   <si>
-    <t>环境</t>
+    <t>特事</t>
+  </si>
+  <si>
+    <t>特办</t>
+  </si>
+  <si>
+    <t>特派员</t>
+  </si>
+  <si>
+    <t>生产型</t>
+  </si>
+  <si>
+    <t>生产日期</t>
   </si>
   <si>
     <t>生产线</t>
   </si>
   <si>
-    <t>生态</t>
+    <t>生产能力</t>
+  </si>
+  <si>
+    <t>生产量</t>
+  </si>
+  <si>
+    <t>生物科技</t>
   </si>
   <si>
     <t>用工</t>
   </si>
   <si>
-    <t>电商</t>
-  </si>
-  <si>
-    <t>电梯</t>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>用电</t>
+  </si>
+  <si>
+    <t>电价</t>
+  </si>
+  <si>
+    <t>电子信息</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>电费</t>
   </si>
   <si>
     <t>疫情</t>
@@ -430,64 +793,196 @@
     <t>病例</t>
   </si>
   <si>
+    <t>痘痘</t>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
     <t>皮肤</t>
   </si>
   <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>社会</t>
+    <t>监管局</t>
+  </si>
+  <si>
+    <t>监管部门</t>
+  </si>
+  <si>
+    <t>省工</t>
+  </si>
+  <si>
+    <t>省经</t>
+  </si>
+  <si>
+    <t>石油</t>
+  </si>
+  <si>
+    <t>社会保险</t>
+  </si>
+  <si>
+    <t>社会保险费</t>
+  </si>
+  <si>
+    <t>社保费</t>
   </si>
   <si>
     <t>社区</t>
   </si>
   <si>
-    <t>科学</t>
+    <t>社局</t>
   </si>
   <si>
     <t>科技</t>
   </si>
   <si>
+    <t>科技股份</t>
+  </si>
+  <si>
+    <t>租金</t>
+  </si>
+  <si>
+    <t>税务</t>
+  </si>
+  <si>
+    <t>税收</t>
+  </si>
+  <si>
+    <t>税款</t>
+  </si>
+  <si>
+    <t>税费</t>
+  </si>
+  <si>
+    <t>稳岗</t>
+  </si>
+  <si>
+    <t>窝点</t>
+  </si>
+  <si>
+    <t>符合标准</t>
+  </si>
+  <si>
+    <t>等家</t>
+  </si>
+  <si>
     <t>精准</t>
   </si>
   <si>
-    <t>系统</t>
+    <t>红斑</t>
+  </si>
+  <si>
+    <t>纤维</t>
   </si>
   <si>
     <t>级别</t>
   </si>
   <si>
+    <t>纱布</t>
+  </si>
+  <si>
+    <t>纳税人</t>
+  </si>
+  <si>
+    <t>纸尿裤</t>
+  </si>
+  <si>
+    <t>纸袋</t>
+  </si>
+  <si>
+    <t>纺织</t>
+  </si>
+  <si>
+    <t>线索</t>
+  </si>
+  <si>
     <t>细菌</t>
   </si>
   <si>
+    <t>织造布</t>
+  </si>
+  <si>
     <t>经济</t>
   </si>
   <si>
     <t>经济社会</t>
   </si>
   <si>
-    <t>网络</t>
+    <t>经济运行</t>
+  </si>
+  <si>
+    <t>经营范围</t>
+  </si>
+  <si>
+    <t>绑带</t>
+  </si>
+  <si>
+    <t>绿色通道</t>
+  </si>
+  <si>
+    <t>缺口</t>
   </si>
   <si>
     <t>罩面</t>
   </si>
   <si>
-    <t>群众</t>
+    <t>美资</t>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t>考场</t>
+  </si>
+  <si>
+    <t>考点</t>
   </si>
   <si>
     <t>耳带</t>
   </si>
   <si>
-    <t>肺炎</t>
-  </si>
-  <si>
-    <t>能力</t>
+    <t>职工</t>
+  </si>
+  <si>
+    <t>联络员</t>
+  </si>
+  <si>
+    <t>股东会</t>
+  </si>
+  <si>
+    <t>股份</t>
+  </si>
+  <si>
+    <t>股权</t>
+  </si>
+  <si>
+    <t>脏污</t>
   </si>
   <si>
     <t>脸型</t>
   </si>
   <si>
-    <t>茅台</t>
+    <t>航班</t>
+  </si>
+  <si>
+    <t>药业</t>
+  </si>
+  <si>
+    <t>药店</t>
+  </si>
+  <si>
+    <t>药房</t>
+  </si>
+  <si>
+    <t>药监</t>
+  </si>
+  <si>
+    <t>药膏</t>
+  </si>
+  <si>
+    <t>营业执照</t>
+  </si>
+  <si>
+    <t>营商</t>
   </si>
   <si>
     <t>落地</t>
@@ -499,66 +994,135 @@
     <t>补贴</t>
   </si>
   <si>
+    <t>裁员</t>
+  </si>
+  <si>
+    <t>裁缝</t>
+  </si>
+  <si>
+    <t>见面</t>
+  </si>
+  <si>
+    <t>观众</t>
+  </si>
+  <si>
+    <t>规上</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
     <t>规模</t>
   </si>
   <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>警方</t>
+  </si>
+  <si>
     <t>订单</t>
   </si>
   <si>
     <t>记者</t>
   </si>
   <si>
+    <t>记者站</t>
+  </si>
+  <si>
+    <t>试生产</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
     <t>财政</t>
   </si>
   <si>
-    <t>责任</t>
+    <t>财税</t>
+  </si>
+  <si>
+    <t>责任编辑</t>
+  </si>
+  <si>
+    <t>货币政策</t>
+  </si>
+  <si>
+    <t>货源</t>
+  </si>
+  <si>
+    <t>质量</t>
   </si>
   <si>
     <t>贷款</t>
   </si>
   <si>
-    <t>资源</t>
+    <t>费率</t>
+  </si>
+  <si>
+    <t>资质</t>
   </si>
   <si>
     <t>资金</t>
   </si>
   <si>
+    <t>资金周转</t>
+  </si>
+  <si>
+    <t>跑步</t>
+  </si>
+  <si>
     <t>跨境</t>
   </si>
   <si>
+    <t>跨界</t>
+  </si>
+  <si>
     <t>车间</t>
   </si>
   <si>
     <t>转型</t>
   </si>
   <si>
-    <t>远景</t>
+    <t>过度</t>
   </si>
   <si>
     <t>远程</t>
   </si>
   <si>
+    <t>退税款</t>
+  </si>
+  <si>
     <t>透气</t>
   </si>
   <si>
+    <t>透气性</t>
+  </si>
+  <si>
     <t>通气</t>
   </si>
   <si>
     <t>通风</t>
   </si>
   <si>
-    <t>部署</t>
-  </si>
-  <si>
     <t>部门</t>
   </si>
   <si>
     <t>酒店</t>
   </si>
   <si>
+    <t>重大项目</t>
+  </si>
+  <si>
     <t>重点</t>
   </si>
   <si>
+    <t>重点项目</t>
+  </si>
+  <si>
+    <t>量产</t>
+  </si>
+  <si>
     <t>金融</t>
   </si>
   <si>
@@ -568,21 +1132,51 @@
     <t>金融机构</t>
   </si>
   <si>
+    <t>钉钉</t>
+  </si>
+  <si>
+    <t>银企</t>
+  </si>
+  <si>
     <t>银行</t>
   </si>
   <si>
+    <t>银行业</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>队员</t>
+  </si>
+  <si>
+    <t>防尘</t>
+  </si>
+  <si>
     <t>防护性</t>
   </si>
   <si>
+    <t>防护服</t>
+  </si>
+  <si>
+    <t>防护用品</t>
+  </si>
+  <si>
+    <t>防病毒</t>
+  </si>
+  <si>
     <t>阻力</t>
   </si>
   <si>
-    <t>降幅</t>
+    <t>难题</t>
   </si>
   <si>
     <t>集团</t>
   </si>
   <si>
+    <t>需求量</t>
+  </si>
+  <si>
     <t>静电</t>
   </si>
   <si>
@@ -592,7 +1186,7 @@
     <t>领域</t>
   </si>
   <si>
-    <t>领导</t>
+    <t>频道</t>
   </si>
   <si>
     <t>颗粒</t>
@@ -601,19 +1195,25 @@
     <t>颗粒物</t>
   </si>
   <si>
-    <t>风险</t>
+    <t>额度</t>
   </si>
   <si>
     <t>飞沫</t>
   </si>
   <si>
-    <t>高质量</t>
-  </si>
-  <si>
-    <t>高风险</t>
+    <t>驻厂</t>
+  </si>
+  <si>
+    <t>高价</t>
+  </si>
+  <si>
+    <t>高新技术</t>
   </si>
   <si>
     <t>鼻梁</t>
+  </si>
+  <si>
+    <t>龙头企业</t>
   </si>
   <si>
     <t>主题1</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>11.600740779914</v>
+        <v>1.39876924517979</v>
       </c>
       <c r="C2">
-        <v>0.3559784248222774</v>
+        <v>0.3432275391408973</v>
       </c>
       <c r="D2">
-        <v>0.3683502903894448</v>
+        <v>1.599200030220355</v>
       </c>
       <c r="E2">
-        <v>0.6658060554172922</v>
+        <v>0.3360752516033397</v>
       </c>
       <c r="F2">
-        <v>40.40301063745575</v>
+        <v>0.4352331494978782</v>
       </c>
       <c r="G2">
-        <v>0.3582608514522928</v>
+        <v>0.4114429435824224</v>
       </c>
       <c r="H2">
-        <v>15.45479219431462</v>
+        <v>0.3976557929155768</v>
       </c>
       <c r="I2">
-        <v>65.5362514849927</v>
+        <v>0.3410036026094773</v>
       </c>
       <c r="J2">
-        <v>1055.820082094896</v>
+        <v>1.557885434797872</v>
       </c>
       <c r="K2">
-        <v>383.3993318120898</v>
+        <v>0.3903631034338035</v>
       </c>
       <c r="L2">
-        <v>816.6103588061843</v>
+        <v>0.5005278799530744</v>
       </c>
       <c r="M2">
-        <v>0.3386572498401761</v>
+        <v>0.3574217041144704</v>
       </c>
       <c r="N2">
-        <v>0.3570505486419914</v>
+        <v>0.3443407741560633</v>
       </c>
       <c r="O2">
-        <v>0.3815819202339048</v>
+        <v>0.3814221232640704</v>
       </c>
       <c r="P2">
-        <v>1205.08300206166</v>
+        <v>0.3405205470975434</v>
       </c>
       <c r="Q2">
-        <v>2790.543763616349</v>
+        <v>0.3477261650746449</v>
       </c>
       <c r="R2">
-        <v>0.3970102736147114</v>
+        <v>0.3738606588346611</v>
       </c>
       <c r="S2">
-        <v>0.3538857573074456</v>
+        <v>57.91296557601142</v>
       </c>
       <c r="T2">
-        <v>0.3721014070729854</v>
+        <v>19.15375162945987</v>
       </c>
       <c r="U2">
-        <v>0.3610378838314159</v>
+        <v>0.3364047410907435</v>
       </c>
       <c r="V2">
-        <v>271.5333763472783</v>
+        <v>0.3620727674817468</v>
       </c>
       <c r="W2">
-        <v>0.3382663665576878</v>
+        <v>0.3561625534944571</v>
       </c>
       <c r="X2">
-        <v>1510.549437868951</v>
+        <v>0.3440097428410556</v>
       </c>
       <c r="Y2">
-        <v>37.34633397157359</v>
+        <v>0.3582909826218354</v>
       </c>
       <c r="Z2">
-        <v>0.3492820284648709</v>
+        <v>0.3568208059369452</v>
       </c>
       <c r="AA2">
-        <v>139.4027775127904</v>
+        <v>0.3406844449730122</v>
       </c>
       <c r="AB2">
-        <v>165.101337412663</v>
+        <v>38.20811531934835</v>
       </c>
       <c r="AC2">
-        <v>0.3813472384476508</v>
+        <v>12.61737276093581</v>
       </c>
       <c r="AD2">
-        <v>0.363993554429126</v>
+        <v>0.3479600612813075</v>
       </c>
       <c r="AE2">
-        <v>184.8332965055131</v>
+        <v>0.3490770742761442</v>
       </c>
       <c r="AF2">
-        <v>233.2717866040688</v>
+        <v>0.3360823163618724</v>
       </c>
       <c r="AG2">
-        <v>11.39918093985492</v>
+        <v>0.3378388502679938</v>
       </c>
       <c r="AH2">
-        <v>1696.028765654014</v>
+        <v>0.3554196472366304</v>
       </c>
       <c r="AI2">
-        <v>103.4441493077424</v>
+        <v>0.339467008064359</v>
       </c>
       <c r="AJ2">
-        <v>0.3618331227880242</v>
+        <v>0.3402629475042581</v>
       </c>
       <c r="AK2">
-        <v>0.3588066100720937</v>
+        <v>0.3451907373087297</v>
       </c>
       <c r="AL2">
-        <v>0.3419830742634564</v>
+        <v>0.336457774001163</v>
       </c>
       <c r="AM2">
-        <v>0.4048410547966927</v>
+        <v>0.335913388414965</v>
       </c>
       <c r="AN2">
-        <v>0.3635547324239561</v>
+        <v>0.335817155262566</v>
       </c>
       <c r="AO2">
-        <v>58.32228780262576</v>
+        <v>53.25558929151868</v>
       </c>
       <c r="AP2">
-        <v>73.48349491909163</v>
+        <v>3.299205468334578</v>
       </c>
       <c r="AQ2">
-        <v>35.18798958144585</v>
+        <v>31.51918940586043</v>
       </c>
       <c r="AR2">
-        <v>109.2780870430918</v>
+        <v>5.092805911140959</v>
       </c>
       <c r="AS2">
-        <v>109.9513710083882</v>
+        <v>5.052378975782744</v>
       </c>
       <c r="AT2">
-        <v>0.3905815844604593</v>
+        <v>39.02649136260405</v>
       </c>
       <c r="AU2">
-        <v>5030.263615456151</v>
+        <v>0.3664563592806946</v>
       </c>
       <c r="AV2">
-        <v>1083.700118588313</v>
+        <v>0.3690458397740675</v>
       </c>
       <c r="AW2">
-        <v>860.8825946733427</v>
+        <v>0.9612164138083321</v>
       </c>
       <c r="AX2">
-        <v>130.1759871090092</v>
+        <v>0.3549022185744108</v>
       </c>
       <c r="AY2">
-        <v>0.3769282448387392</v>
+        <v>0.3361730218054874</v>
       </c>
       <c r="AZ2">
-        <v>0.3552718945175533</v>
+        <v>0.3351054749469981</v>
       </c>
       <c r="BA2">
-        <v>78.57933629198097</v>
+        <v>0.3427179739826029</v>
       </c>
       <c r="BB2">
-        <v>461.9897778033873</v>
+        <v>0.3572385772632408</v>
       </c>
       <c r="BC2">
-        <v>618.9314389005942</v>
+        <v>0.335996280942548</v>
       </c>
       <c r="BD2">
-        <v>33646.25225708732</v>
+        <v>0.3349313149051237</v>
       </c>
       <c r="BE2">
-        <v>292.6386231039568</v>
+        <v>0.3623121088514412</v>
       </c>
       <c r="BF2">
-        <v>107.1531813995309</v>
+        <v>0.3414238832734953</v>
       </c>
       <c r="BG2">
-        <v>150.6445262130811</v>
+        <v>0.3441279900901946</v>
       </c>
       <c r="BH2">
-        <v>0.3928275000500078</v>
+        <v>3.804493213383503</v>
       </c>
       <c r="BI2">
-        <v>226.0182016950812</v>
+        <v>0.3376303762964123</v>
       </c>
       <c r="BJ2">
-        <v>131.2419911495518</v>
+        <v>0.5494746852818181</v>
       </c>
       <c r="BK2">
-        <v>0.3766660676936498</v>
+        <v>9.277491019550405</v>
       </c>
       <c r="BL2">
-        <v>178.9953318853034</v>
+        <v>0.4574407894826164</v>
       </c>
       <c r="BM2">
-        <v>248.9273168564704</v>
+        <v>0.3364934322442495</v>
       </c>
       <c r="BN2">
-        <v>294.1186626764537</v>
+        <v>0.3883083559126136</v>
       </c>
       <c r="BO2">
-        <v>57.37586792378038</v>
+        <v>0.3841182606137733</v>
       </c>
       <c r="BP2">
-        <v>68.27056437183499</v>
+        <v>0.4568057207896461</v>
       </c>
       <c r="BQ2">
-        <v>0.336690889794228</v>
+        <v>0.3395615858621107</v>
       </c>
       <c r="BR2">
-        <v>80.33088046664324</v>
+        <v>0.3434863525065949</v>
       </c>
       <c r="BS2">
-        <v>953.2938453009149</v>
+        <v>6.051017320558349</v>
       </c>
       <c r="BT2">
-        <v>0.3497750372279277</v>
+        <v>0.3437382684399894</v>
       </c>
       <c r="BU2">
-        <v>0.3357089227618768</v>
+        <v>26.47868589134658</v>
       </c>
       <c r="BV2">
-        <v>0.3586302639233239</v>
+        <v>0.3626061413283094</v>
       </c>
       <c r="BW2">
-        <v>0.3437086373493371</v>
+        <v>109.0865411325396</v>
       </c>
       <c r="BX2">
-        <v>0.8323446014334837</v>
+        <v>0.4421081072478253</v>
       </c>
       <c r="BY2">
-        <v>235.7600852802326</v>
+        <v>0.4212223513673614</v>
       </c>
       <c r="BZ2">
-        <v>0.4165531359116741</v>
+        <v>0.3676132204646147</v>
       </c>
       <c r="CA2">
-        <v>62.0165305722907</v>
+        <v>19.69262139027389</v>
       </c>
       <c r="CB2">
-        <v>1899.53753467078</v>
+        <v>0.349867468863291</v>
       </c>
       <c r="CC2">
-        <v>0.3694006770483425</v>
+        <v>0.3875219926684047</v>
       </c>
       <c r="CD2">
-        <v>88.44193716305864</v>
+        <v>0.335041190268936</v>
       </c>
       <c r="CE2">
-        <v>147.1741395027983</v>
+        <v>0.3368295409497233</v>
       </c>
       <c r="CF2">
-        <v>931.3461112979752</v>
+        <v>0.3571723271303619</v>
       </c>
       <c r="CG2">
-        <v>12.84095855064729</v>
+        <v>0.3407896159764727</v>
       </c>
       <c r="CH2">
-        <v>94.52252840414903</v>
+        <v>0.344309048631425</v>
       </c>
       <c r="CI2">
-        <v>0.3531438075423661</v>
+        <v>0.343853085606465</v>
       </c>
       <c r="CJ2">
-        <v>125.5105048699499</v>
+        <v>4.057397988875553</v>
       </c>
       <c r="CK2">
-        <v>0.3353185589077355</v>
+        <v>0.3371426504564383</v>
       </c>
       <c r="CL2">
-        <v>52.6085440426162</v>
+        <v>0.3469589318317886</v>
       </c>
       <c r="CM2">
-        <v>878.5991128874474</v>
+        <v>4.075165320057243</v>
       </c>
       <c r="CN2">
-        <v>167.8453961331442</v>
+        <v>140.2566199669685</v>
       </c>
       <c r="CO2">
-        <v>26.58656492855753</v>
+        <v>2.073840107809414</v>
       </c>
       <c r="CP2">
-        <v>0.3664008224923539</v>
+        <v>0.4024818671264523</v>
       </c>
       <c r="CQ2">
-        <v>269.8040738970831</v>
+        <v>0.3547725970509816</v>
       </c>
       <c r="CR2">
-        <v>0.3399363702403946</v>
+        <v>0.3371676935323962</v>
       </c>
       <c r="CS2">
-        <v>208.4703889028083</v>
+        <v>0.3564712403552202</v>
       </c>
       <c r="CT2">
-        <v>18.2861332888905</v>
+        <v>9.712167368236543</v>
       </c>
       <c r="CU2">
-        <v>0.3594279202669805</v>
+        <v>0.3965285333212579</v>
       </c>
       <c r="CV2">
-        <v>267.1224650446417</v>
+        <v>1.638860943848423</v>
       </c>
       <c r="CW2">
-        <v>0.3624675516242851</v>
+        <v>0.3410997946321471</v>
       </c>
       <c r="CX2">
-        <v>0.3429488914542634</v>
+        <v>32.49618806971132</v>
       </c>
       <c r="CY2">
-        <v>438.9543553361591</v>
+        <v>6.538997802951132</v>
       </c>
       <c r="CZ2">
-        <v>322.4196600979224</v>
+        <v>51.32784298684812</v>
       </c>
       <c r="DA2">
-        <v>0.3996666164358606</v>
+        <v>0.4900036699269461</v>
       </c>
       <c r="DB2">
-        <v>0.3357394678006088</v>
+        <v>0.4342228721975468</v>
       </c>
       <c r="DC2">
-        <v>12.72101448928991</v>
+        <v>0.4220654381927517</v>
       </c>
       <c r="DD2">
-        <v>188.0745509640007</v>
+        <v>0.3481590988500683</v>
       </c>
       <c r="DE2">
-        <v>253.3741274043753</v>
+        <v>0.4000167357734642</v>
       </c>
       <c r="DF2">
-        <v>60.12214769114878</v>
+        <v>0.3477015149719274</v>
       </c>
       <c r="DG2">
-        <v>366.2918546371596</v>
+        <v>0.4395635859052909</v>
       </c>
       <c r="DH2">
-        <v>0.345499864207489</v>
+        <v>12.19820275100472</v>
       </c>
       <c r="DI2">
-        <v>0.3432782027235767</v>
+        <v>0.3374263209594229</v>
       </c>
       <c r="DJ2">
-        <v>0.4192039133659934</v>
+        <v>0.3368228712074996</v>
       </c>
       <c r="DK2">
-        <v>3.978364391793853</v>
+        <v>0.338534034394834</v>
       </c>
       <c r="DL2">
-        <v>0.3375695083252171</v>
+        <v>0.3761229934311345</v>
       </c>
       <c r="DM2">
-        <v>20.90376243446024</v>
+        <v>0.3399656875927549</v>
       </c>
       <c r="DN2">
-        <v>301.2689237393926</v>
+        <v>74.67320817232108</v>
       </c>
       <c r="DO2">
-        <v>0.3458781366749668</v>
+        <v>99.49703039391592</v>
       </c>
       <c r="DP2">
-        <v>658.9525614321964</v>
+        <v>60.99895863677273</v>
       </c>
       <c r="DQ2">
-        <v>128.7206238038975</v>
+        <v>0.3349515566722648</v>
       </c>
       <c r="DR2">
-        <v>39.33122412625035</v>
+        <v>0.3465827333877011</v>
       </c>
       <c r="DS2">
-        <v>1004.598023814988</v>
+        <v>0.3548693381906158</v>
       </c>
       <c r="DT2">
-        <v>66.87204103946077</v>
+        <v>0.3373243565927605</v>
       </c>
       <c r="DU2">
-        <v>71.33066591675214</v>
+        <v>0.3517914440763423</v>
       </c>
       <c r="DV2">
-        <v>0.3829836755595822</v>
+        <v>22.56596578359814</v>
       </c>
       <c r="DW2">
-        <v>0.4241434325427794</v>
+        <v>0.3417058406927341</v>
       </c>
       <c r="DX2">
-        <v>73.37016585899364</v>
+        <v>0.3357902029627154</v>
       </c>
       <c r="DY2">
-        <v>48.32098378071249</v>
+        <v>3.757033993862902</v>
       </c>
       <c r="DZ2">
-        <v>30.74535158362784</v>
+        <v>0.5682036532216508</v>
       </c>
       <c r="EA2">
-        <v>2798.100758778799</v>
+        <v>0.345717307933764</v>
       </c>
       <c r="EB2">
-        <v>220.103617920005</v>
+        <v>0.3526776245876194</v>
       </c>
       <c r="EC2">
-        <v>1940.908683719598</v>
+        <v>0.3579686842984692</v>
       </c>
       <c r="ED2">
-        <v>0.3441613562532891</v>
+        <v>0.3425461948776953</v>
       </c>
       <c r="EE2">
-        <v>0.3820554411549596</v>
+        <v>0.349411761430853</v>
       </c>
       <c r="EF2">
-        <v>36.42430910649397</v>
+        <v>0.3396793112813857</v>
       </c>
       <c r="EG2">
-        <v>11.29960901048187</v>
+        <v>0.3946287015220152</v>
       </c>
       <c r="EH2">
-        <v>1569.013875030168</v>
+        <v>0.3582158250472772</v>
       </c>
       <c r="EI2">
-        <v>0.3548252399085062</v>
+        <v>0.3613674123503546</v>
       </c>
       <c r="EJ2">
-        <v>316.276456822681</v>
+        <v>0.3819299997746059</v>
       </c>
       <c r="EK2">
-        <v>0.3675269144472627</v>
+        <v>0.3402813570729553</v>
       </c>
       <c r="EL2">
-        <v>28.02973316403936</v>
+        <v>39.83173851012937</v>
       </c>
       <c r="EM2">
-        <v>0.356477303903813</v>
+        <v>0.376262416553149</v>
       </c>
       <c r="EN2">
-        <v>78.4150936048154</v>
+        <v>0.402529908354829</v>
       </c>
       <c r="EO2">
-        <v>31.06855002347255</v>
+        <v>4.070240292389279</v>
       </c>
       <c r="EP2">
-        <v>0.3627040378866381</v>
+        <v>0.3610082548049881</v>
       </c>
       <c r="EQ2">
-        <v>74.12916590447519</v>
+        <v>0.3596822538082781</v>
       </c>
       <c r="ER2">
-        <v>159.0520771361252</v>
+        <v>0.3638068847689246</v>
       </c>
       <c r="ES2">
-        <v>241.1917870162872</v>
+        <v>53.95437002571114</v>
       </c>
       <c r="ET2">
-        <v>0.3659640852698014</v>
+        <v>0.3934183295606059</v>
       </c>
       <c r="EU2">
-        <v>0.3464369574366566</v>
+        <v>44.28160213890263</v>
       </c>
       <c r="EV2">
-        <v>75.96703716988482</v>
+        <v>0.3655431121988266</v>
       </c>
       <c r="EW2">
-        <v>33.32909566863394</v>
+        <v>0.3519846838077584</v>
       </c>
       <c r="EX2">
-        <v>115.5032756130744</v>
+        <v>2.781326990513318</v>
       </c>
       <c r="EY2">
-        <v>118.3243610289326</v>
+        <v>2.659065691908841</v>
       </c>
       <c r="EZ2">
-        <v>591.8712183908586</v>
+        <v>0.3406602639754873</v>
       </c>
       <c r="FA2">
-        <v>74.65639715032056</v>
+        <v>0.3816786698789084</v>
       </c>
       <c r="FB2">
-        <v>42.31355982413136</v>
+        <v>0.33538874909873</v>
       </c>
       <c r="FC2">
-        <v>0.3346305563797465</v>
+        <v>36.04071133701137</v>
       </c>
       <c r="FD2">
-        <v>0.398974687945625</v>
+        <v>5.89731128523958</v>
       </c>
       <c r="FE2">
-        <v>0.3896808224520629</v>
+        <v>0.5490619344414215</v>
       </c>
       <c r="FF2">
-        <v>0.3597347078822298</v>
+        <v>22.42036442786534</v>
       </c>
       <c r="FG2">
-        <v>0.3795986373674759</v>
+        <v>0.3576129476430607</v>
       </c>
       <c r="FH2">
-        <v>91.48926144959671</v>
+        <v>2.875378205018625</v>
       </c>
       <c r="FI2">
-        <v>2768.539232483918</v>
+        <v>0.3356605607451953</v>
       </c>
       <c r="FJ2">
-        <v>0.3435169788301684</v>
+        <v>0.3822497819043413</v>
       </c>
       <c r="FK2">
-        <v>0.8097510600866533</v>
+        <v>63.59523853282604</v>
       </c>
       <c r="FL2">
-        <v>0.3464803772327935</v>
+        <v>7.938495634561821</v>
       </c>
       <c r="FM2">
-        <v>102.3975699491472</v>
+        <v>0.3551113242164951</v>
       </c>
       <c r="FN2">
-        <v>11.4076098082768</v>
+        <v>0.4162434305375172</v>
       </c>
       <c r="FO2">
-        <v>0.3861455959823039</v>
+        <v>0.3518486229046854</v>
       </c>
       <c r="FP2">
-        <v>867.869693695446</v>
+        <v>0.3588933295760991</v>
       </c>
       <c r="FQ2">
-        <v>0.4008072124461112</v>
+        <v>0.3505014925042232</v>
       </c>
       <c r="FR2">
-        <v>36.31847682286425</v>
+        <v>0.3420495412720188</v>
       </c>
       <c r="FS2">
-        <v>0.3562430449723147</v>
+        <v>0.3388624777972096</v>
       </c>
       <c r="FT2">
-        <v>111.3125712758003</v>
+        <v>22.39734345370185</v>
       </c>
       <c r="FU2">
-        <v>145.2299920565933</v>
+        <v>62.77506155499282</v>
       </c>
       <c r="FV2">
-        <v>336.3153033592655</v>
+        <v>11.65664481043803</v>
       </c>
       <c r="FW2">
-        <v>17.26072510579941</v>
+        <v>0.3513987744481415</v>
       </c>
       <c r="FX2">
-        <v>581.9854761032303</v>
+        <v>0.4667126837625222</v>
       </c>
       <c r="FY2">
-        <v>0.357745722704897</v>
+        <v>0.3353188033910011</v>
       </c>
       <c r="FZ2">
-        <v>250.3426987853732</v>
+        <v>0.344119066192166</v>
       </c>
       <c r="GA2">
-        <v>0.3450364447560741</v>
+        <v>12.63942470449327</v>
       </c>
       <c r="GB2">
-        <v>0.3394412053639211</v>
+        <v>3.020272200377284</v>
       </c>
       <c r="GC2">
-        <v>0.3410449105095161</v>
+        <v>24.16922836583084</v>
       </c>
       <c r="GD2">
-        <v>0.406885810488203</v>
+        <v>0.3498095364452093</v>
       </c>
       <c r="GE2">
-        <v>52.33044254402802</v>
+        <v>17.19386912506536</v>
       </c>
       <c r="GF2">
-        <v>174.6562416884754</v>
+        <v>0.3456341968774103</v>
       </c>
       <c r="GG2">
-        <v>0.3356294469519072</v>
+        <v>106.4980362767972</v>
       </c>
       <c r="GH2">
-        <v>458.6446984039169</v>
+        <v>15.14881328921491</v>
       </c>
       <c r="GI2">
-        <v>131.3237539200395</v>
+        <v>43.91199579251272</v>
       </c>
       <c r="GJ2">
-        <v>0.4035387814725821</v>
+        <v>0.3355843010672586</v>
       </c>
       <c r="GK2">
-        <v>0.3741469206290169</v>
+        <v>0.3416729398709781</v>
       </c>
       <c r="GL2">
-        <v>0.3933331137777332</v>
+        <v>0.3379477620330799</v>
       </c>
       <c r="GM2">
-        <v>115.4530322561463</v>
+        <v>0.3639123175251424</v>
       </c>
       <c r="GN2">
-        <v>221.0107819455505</v>
+        <v>4.304223418274575</v>
       </c>
       <c r="GO2">
-        <v>266.3190920435146</v>
+        <v>42.31804018598383</v>
       </c>
       <c r="GP2">
-        <v>246.2662230215437</v>
+        <v>0.3704796393440049</v>
       </c>
       <c r="GQ2">
-        <v>10.66626816759705</v>
+        <v>19.85284214202592</v>
       </c>
       <c r="GR2">
-        <v>95.74203232168416</v>
+        <v>0.3601306162865801</v>
       </c>
       <c r="GS2">
-        <v>136.3073110325323</v>
+        <v>0.8429422269288631</v>
+      </c>
+      <c r="GT2">
+        <v>0.3512120417171372</v>
+      </c>
+      <c r="GU2">
+        <v>0.3462172772180365</v>
+      </c>
+      <c r="GV2">
+        <v>1.207803652226624</v>
+      </c>
+      <c r="GW2">
+        <v>0.3352230071109785</v>
+      </c>
+      <c r="GX2">
+        <v>0.36893978253335</v>
+      </c>
+      <c r="GY2">
+        <v>0.3547613493256585</v>
+      </c>
+      <c r="GZ2">
+        <v>0.3902534417199481</v>
+      </c>
+      <c r="HA2">
+        <v>0.3367277767029503</v>
+      </c>
+      <c r="HB2">
+        <v>1.649008335193685</v>
+      </c>
+      <c r="HC2">
+        <v>0.3347810004465767</v>
+      </c>
+      <c r="HD2">
+        <v>14.44548017002317</v>
+      </c>
+      <c r="HE2">
+        <v>1.556761201985088</v>
+      </c>
+      <c r="HF2">
+        <v>0.399626234815385</v>
+      </c>
+      <c r="HG2">
+        <v>38.61915485761963</v>
+      </c>
+      <c r="HH2">
+        <v>0.3519197302197641</v>
+      </c>
+      <c r="HI2">
+        <v>0.424079641486343</v>
+      </c>
+      <c r="HJ2">
+        <v>2.572199133089676</v>
+      </c>
+      <c r="HK2">
+        <v>0.9952748931709554</v>
+      </c>
+      <c r="HL2">
+        <v>40.31103116296931</v>
+      </c>
+      <c r="HM2">
+        <v>0.3943820006103112</v>
+      </c>
+      <c r="HN2">
+        <v>0.3677454005597337</v>
+      </c>
+      <c r="HO2">
+        <v>2.588443297036352</v>
+      </c>
+      <c r="HP2">
+        <v>0.3759852376080187</v>
+      </c>
+      <c r="HQ2">
+        <v>0.4072139653506983</v>
+      </c>
+      <c r="HR2">
+        <v>0.3382067463716151</v>
+      </c>
+      <c r="HS2">
+        <v>0.3359201130558762</v>
+      </c>
+      <c r="HT2">
+        <v>0.339943121421398</v>
+      </c>
+      <c r="HU2">
+        <v>0.3452579548323113</v>
+      </c>
+      <c r="HV2">
+        <v>0.3373148041190261</v>
+      </c>
+      <c r="HW2">
+        <v>0.3355757597504756</v>
+      </c>
+      <c r="HX2">
+        <v>0.3590777190556453</v>
+      </c>
+      <c r="HY2">
+        <v>0.5316462447869315</v>
+      </c>
+      <c r="HZ2">
+        <v>37.98538377013983</v>
+      </c>
+      <c r="IA2">
+        <v>0.3365857421332317</v>
+      </c>
+      <c r="IB2">
+        <v>0.5582970131164759</v>
+      </c>
+      <c r="IC2">
+        <v>0.3358142754287107</v>
+      </c>
+      <c r="ID2">
+        <v>0.334738894846059</v>
+      </c>
+      <c r="IE2">
+        <v>0.389536301205048</v>
+      </c>
+      <c r="IF2">
+        <v>0.3457400879257303</v>
+      </c>
+      <c r="IG2">
+        <v>0.3617188534892342</v>
+      </c>
+      <c r="IH2">
+        <v>24.09808213377323</v>
+      </c>
+      <c r="II2">
+        <v>0.3468705052038808</v>
+      </c>
+      <c r="IJ2">
+        <v>0.3466837868583597</v>
+      </c>
+      <c r="IK2">
+        <v>0.3378840488288576</v>
+      </c>
+      <c r="IL2">
+        <v>0.3370491005225289</v>
+      </c>
+      <c r="IM2">
+        <v>0.3461077635354952</v>
+      </c>
+      <c r="IN2">
+        <v>0.3399313898694687</v>
+      </c>
+      <c r="IO2">
+        <v>0.3453830931542315</v>
+      </c>
+      <c r="IP2">
+        <v>0.3359686833183408</v>
+      </c>
+      <c r="IQ2">
+        <v>0.3493931917071155</v>
+      </c>
+      <c r="IR2">
+        <v>0.3474029849968406</v>
+      </c>
+      <c r="IS2">
+        <v>0.3924209879774089</v>
+      </c>
+      <c r="IT2">
+        <v>0.3539220128543368</v>
+      </c>
+      <c r="IU2">
+        <v>0.335866560150842</v>
+      </c>
+      <c r="IV2">
+        <v>0.3383863685605654</v>
+      </c>
+      <c r="IW2">
+        <v>0.4277373372643024</v>
+      </c>
+      <c r="IX2">
+        <v>0.3457432687028789</v>
+      </c>
+      <c r="IY2">
+        <v>198.7420073364498</v>
+      </c>
+      <c r="IZ2">
+        <v>108.467355679357</v>
+      </c>
+      <c r="JA2">
+        <v>4.19013713155536</v>
+      </c>
+      <c r="JB2">
+        <v>24.7016249095534</v>
+      </c>
+      <c r="JC2">
+        <v>15.72383212565059</v>
+      </c>
+      <c r="JD2">
+        <v>0.3461160724393342</v>
+      </c>
+      <c r="JE2">
+        <v>0.3493475812356674</v>
+      </c>
+      <c r="JF2">
+        <v>0.341313022252602</v>
+      </c>
+      <c r="JG2">
+        <v>0.3349990440799819</v>
+      </c>
+      <c r="JH2">
+        <v>0.3428440206426872</v>
+      </c>
+      <c r="JI2">
+        <v>0.3377972988812107</v>
+      </c>
+      <c r="JJ2">
+        <v>0.3380400876477396</v>
+      </c>
+      <c r="JK2">
+        <v>0.3356048861277279</v>
+      </c>
+      <c r="JL2">
+        <v>102.2807888154504</v>
+      </c>
+      <c r="JM2">
+        <v>0.3387451336360602</v>
+      </c>
+      <c r="JN2">
+        <v>0.3801306116647498</v>
+      </c>
+      <c r="JO2">
+        <v>0.3417380123998004</v>
+      </c>
+      <c r="JP2">
+        <v>0.3456364196075075</v>
+      </c>
+      <c r="JQ2">
+        <v>0.3382360875170485</v>
+      </c>
+      <c r="JR2">
+        <v>0.3444839120206665</v>
+      </c>
+      <c r="JS2">
+        <v>0.3424628406304323</v>
+      </c>
+      <c r="JT2">
+        <v>0.3402108511302266</v>
+      </c>
+      <c r="JU2">
+        <v>0.3369712461486604</v>
+      </c>
+      <c r="JV2">
+        <v>0.3357959732386419</v>
+      </c>
+      <c r="JW2">
+        <v>0.3568915963865514</v>
+      </c>
+      <c r="JX2">
+        <v>0.418938904604087</v>
+      </c>
+      <c r="JY2">
+        <v>9.062433957636943</v>
+      </c>
+      <c r="JZ2">
+        <v>2.445595932415416</v>
+      </c>
+      <c r="KA2">
+        <v>0.3398317670670749</v>
+      </c>
+      <c r="KB2">
+        <v>11.92611475358377</v>
+      </c>
+      <c r="KC2">
+        <v>0.5479946550923456</v>
+      </c>
+      <c r="KD2">
+        <v>0.3398688412843693</v>
+      </c>
+      <c r="KE2">
+        <v>0.419198245364086</v>
+      </c>
+      <c r="KF2">
+        <v>1.98564774090404</v>
+      </c>
+      <c r="KG2">
+        <v>0.3591786776327801</v>
+      </c>
+      <c r="KH2">
+        <v>0.3825431988460252</v>
+      </c>
+      <c r="KI2">
+        <v>3.175345821360874</v>
+      </c>
+      <c r="KJ2">
+        <v>0.3356714299259244</v>
+      </c>
+      <c r="KK2">
+        <v>3.636878094664266</v>
+      </c>
+      <c r="KL2">
+        <v>0.4420314533600916</v>
+      </c>
+      <c r="KM2">
+        <v>0.3403196301915555</v>
+      </c>
+      <c r="KN2">
+        <v>0.3460640556756109</v>
+      </c>
+      <c r="KO2">
+        <v>1.947650194284448</v>
+      </c>
+      <c r="KP2">
+        <v>0.3805711329622574</v>
+      </c>
+      <c r="KQ2">
+        <v>0.4074734238418692</v>
+      </c>
+      <c r="KR2">
+        <v>0.3362542777535741</v>
+      </c>
+      <c r="KS2">
+        <v>1.738691323249284</v>
+      </c>
+      <c r="KT2">
+        <v>29.91547209143662</v>
+      </c>
+      <c r="KU2">
+        <v>0.503796090088808</v>
+      </c>
+      <c r="KV2">
+        <v>0.4043269225607392</v>
+      </c>
+      <c r="KW2">
+        <v>0.3420500792978997</v>
+      </c>
+      <c r="KX2">
+        <v>0.412751838632026</v>
+      </c>
+      <c r="KY2">
+        <v>0.6586515051015969</v>
+      </c>
+      <c r="KZ2">
+        <v>0.3368387831993893</v>
+      </c>
+      <c r="LA2">
+        <v>0.3649530479368682</v>
+      </c>
+      <c r="LB2">
+        <v>0.3362975470672043</v>
+      </c>
+      <c r="LC2">
+        <v>2.335230192810064</v>
+      </c>
+      <c r="LD2">
+        <v>1.779814144562368</v>
+      </c>
+      <c r="LE2">
+        <v>34.31408042238121</v>
+      </c>
+      <c r="LF2">
+        <v>0.3482671152207972</v>
+      </c>
+      <c r="LG2">
+        <v>0.3786722984320715</v>
+      </c>
+      <c r="LH2">
+        <v>0.3665448957604366</v>
+      </c>
+      <c r="LI2">
+        <v>0.3548361118470436</v>
+      </c>
+      <c r="LJ2">
+        <v>2.575127187101494</v>
+      </c>
+      <c r="LK2">
+        <v>0.3432470537001396</v>
+      </c>
+      <c r="LL2">
+        <v>0.3701127803901474</v>
+      </c>
+      <c r="LM2">
+        <v>0.4427919436141725</v>
+      </c>
+      <c r="LN2">
+        <v>0.4403341020800707</v>
+      </c>
+      <c r="LO2">
+        <v>0.3497182090695025</v>
+      </c>
+      <c r="LP2">
+        <v>0.3440628416685244</v>
+      </c>
+      <c r="LQ2">
+        <v>0.3579155197326136</v>
+      </c>
+      <c r="LR2">
+        <v>2.689690222996534</v>
+      </c>
+      <c r="LS2">
+        <v>21.96959490431226</v>
+      </c>
+      <c r="LT2">
+        <v>0.3386240093535507</v>
+      </c>
+      <c r="LU2">
+        <v>0.4773351503853609</v>
+      </c>
+      <c r="LV2">
+        <v>0.4044164628461316</v>
+      </c>
+      <c r="LW2">
+        <v>35.75380100447749</v>
+      </c>
+      <c r="LX2">
+        <v>0.3591112683351556</v>
+      </c>
+      <c r="LY2">
+        <v>0.3727791017302745</v>
+      </c>
+      <c r="LZ2">
+        <v>52.87605885415802</v>
+      </c>
+      <c r="MA2">
+        <v>12.34294559445223</v>
+      </c>
+      <c r="MB2">
+        <v>0.3358349099832412</v>
+      </c>
+      <c r="MC2">
+        <v>5.73062788982961</v>
+      </c>
+      <c r="MD2">
+        <v>0.3758957136738326</v>
+      </c>
+      <c r="ME2">
+        <v>0.3484342538242447</v>
+      </c>
+      <c r="MF2">
+        <v>34.89888961081633</v>
+      </c>
+      <c r="MG2">
+        <v>0.3426812449884577</v>
+      </c>
+      <c r="MH2">
+        <v>0.357684447515756</v>
+      </c>
+      <c r="MI2">
+        <v>0.3889677998226858</v>
+      </c>
+      <c r="MJ2">
+        <v>0.3411647643975044</v>
+      </c>
+      <c r="MK2">
+        <v>0.3411309500856576</v>
+      </c>
+      <c r="ML2">
+        <v>0.3644530633423952</v>
+      </c>
+      <c r="MM2">
+        <v>0.3569697495712204</v>
+      </c>
+      <c r="MN2">
+        <v>0.3384272915276596</v>
+      </c>
+      <c r="MO2">
+        <v>5.616137918058399</v>
+      </c>
+      <c r="MP2">
+        <v>0.3742552772257053</v>
+      </c>
+      <c r="MQ2">
+        <v>0.3505710645213989</v>
+      </c>
+      <c r="MR2">
+        <v>0.3496650932084754</v>
+      </c>
+      <c r="MS2">
+        <v>0.3512797207974573</v>
+      </c>
+      <c r="MT2">
+        <v>8.496262562023739</v>
+      </c>
+      <c r="MU2">
+        <v>0.5947431865503328</v>
+      </c>
+      <c r="MV2">
+        <v>0.3344017731894625</v>
+      </c>
+      <c r="MW2">
+        <v>4.092630802618255</v>
+      </c>
+      <c r="MX2">
+        <v>1.38316648973487</v>
+      </c>
+      <c r="MY2">
+        <v>6.800349676457405</v>
+      </c>
+      <c r="MZ2">
+        <v>35.91109215031909</v>
+      </c>
+      <c r="NA2">
+        <v>15.70019112870964</v>
+      </c>
+      <c r="NB2">
+        <v>36.09103330884062</v>
+      </c>
+      <c r="NC2">
+        <v>0.3440825906653953</v>
+      </c>
+      <c r="ND2">
+        <v>17.47320260095863</v>
+      </c>
+      <c r="NE2">
+        <v>0.3406294218223068</v>
+      </c>
+      <c r="NF2">
+        <v>0.3582694516405092</v>
+      </c>
+      <c r="NG2">
+        <v>0.3455407454649612</v>
+      </c>
+      <c r="NH2">
+        <v>0.3380645769858481</v>
+      </c>
+      <c r="NI2">
+        <v>0.3364207934918795</v>
+      </c>
+      <c r="NJ2">
+        <v>0.3845476501184609</v>
+      </c>
+      <c r="NK2">
+        <v>0.3348082069753661</v>
+      </c>
+      <c r="NL2">
+        <v>0.404138629687274</v>
+      </c>
+      <c r="NM2">
+        <v>0.3353996188141227</v>
+      </c>
+      <c r="NN2">
+        <v>24.85973337383324</v>
+      </c>
+      <c r="NO2">
+        <v>25.22913967212401</v>
+      </c>
+      <c r="NP2">
+        <v>0.3443674543692269</v>
+      </c>
+      <c r="NQ2">
+        <v>3.144450592197728</v>
+      </c>
+      <c r="NR2">
+        <v>8.870196982875106</v>
+      </c>
+      <c r="NS2">
+        <v>0.4206520385037409</v>
+      </c>
+      <c r="NT2">
+        <v>0.4198975532867089</v>
+      </c>
+      <c r="NU2">
+        <v>5.566058416819862</v>
+      </c>
+      <c r="NV2">
+        <v>0.4749426419847453</v>
+      </c>
+      <c r="NW2">
+        <v>0.383807693922299</v>
+      </c>
+      <c r="NX2">
+        <v>0.3599956874033284</v>
+      </c>
+      <c r="NY2">
+        <v>0.3451545652461747</v>
+      </c>
+      <c r="NZ2">
+        <v>0.3857413229123831</v>
+      </c>
+      <c r="OA2">
+        <v>0.3991321598312817</v>
+      </c>
+      <c r="OB2">
+        <v>1.56744219457682</v>
+      </c>
+      <c r="OC2">
+        <v>0.4359286734011466</v>
+      </c>
+      <c r="OD2">
+        <v>2.19001052342514</v>
+      </c>
+      <c r="OE2">
+        <v>0.3414783740458494</v>
+      </c>
+      <c r="OF2">
+        <v>8.64010651569715</v>
+      </c>
+      <c r="OG2">
+        <v>0.3367868300219651</v>
+      </c>
+      <c r="OH2">
+        <v>0.3934208585995544</v>
+      </c>
+      <c r="OI2">
+        <v>0.3428281974307674</v>
+      </c>
+      <c r="OJ2">
+        <v>1.781075396849583</v>
+      </c>
+      <c r="OK2">
+        <v>0.3425433444402617</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>245.2280424066016</v>
+        <v>7.086343512006467</v>
       </c>
       <c r="C3">
-        <v>721.5515088729128</v>
+        <v>0.4828236437490795</v>
       </c>
       <c r="D3">
-        <v>79.91662921002276</v>
+        <v>4.153164721076811</v>
       </c>
       <c r="E3">
-        <v>386.4776164402522</v>
+        <v>0.3356579717352458</v>
       </c>
       <c r="F3">
-        <v>1253.232395863285</v>
+        <v>0.3979419657251401</v>
       </c>
       <c r="G3">
-        <v>55.48016142164158</v>
+        <v>22.84968784278513</v>
       </c>
       <c r="H3">
-        <v>0.3550858722461713</v>
+        <v>38.16525837512463</v>
       </c>
       <c r="I3">
-        <v>0.3524427653034614</v>
+        <v>2.588523138159588</v>
       </c>
       <c r="J3">
-        <v>0.3681994627769813</v>
+        <v>7.438083416552894</v>
       </c>
       <c r="K3">
-        <v>0.3611214237532979</v>
+        <v>34.44449183896595</v>
       </c>
       <c r="L3">
-        <v>6941.183266367744</v>
+        <v>0.3545262097436576</v>
       </c>
       <c r="M3">
-        <v>0.3557627130229289</v>
+        <v>55.92475283778155</v>
       </c>
       <c r="N3">
-        <v>31.03375635276273</v>
+        <v>25.84361904775949</v>
       </c>
       <c r="O3">
-        <v>657.8636368693677</v>
+        <v>44.77437010451748</v>
       </c>
       <c r="P3">
-        <v>0.3735101220465706</v>
+        <v>0.3782981953712932</v>
       </c>
       <c r="Q3">
-        <v>0.383121495433082</v>
+        <v>1.35342215960641</v>
       </c>
       <c r="R3">
-        <v>280.7850916905919</v>
+        <v>6.249795219763755</v>
       </c>
       <c r="S3">
-        <v>292.4996998774966</v>
+        <v>7.521173581299161</v>
       </c>
       <c r="T3">
-        <v>0.3557553275512647</v>
+        <v>2.159338935585208</v>
       </c>
       <c r="U3">
-        <v>446.8640636727159</v>
+        <v>0.3423172404672715</v>
       </c>
       <c r="V3">
-        <v>2308.462053878796</v>
+        <v>0.6796258822745636</v>
       </c>
       <c r="W3">
-        <v>0.3495233712905342</v>
+        <v>229.6190246584823</v>
       </c>
       <c r="X3">
-        <v>3.026157930836038</v>
+        <v>3.646412399195445</v>
       </c>
       <c r="Y3">
-        <v>0.352218238741348</v>
+        <v>11.91425861792377</v>
       </c>
       <c r="Z3">
-        <v>1168.270076405382</v>
+        <v>7.649979281474088</v>
       </c>
       <c r="AA3">
-        <v>1860.264528511996</v>
+        <v>0.3377146217170532</v>
       </c>
       <c r="AB3">
-        <v>601.8682913307085</v>
+        <v>11.15755797421964</v>
       </c>
       <c r="AC3">
-        <v>1245.554171145427</v>
+        <v>0.3351748584525731</v>
       </c>
       <c r="AD3">
-        <v>104.6232352082613</v>
+        <v>12.41191296461399</v>
       </c>
       <c r="AE3">
-        <v>432.7200714737399</v>
+        <v>27.24038990591473</v>
       </c>
       <c r="AF3">
-        <v>817.7870793390703</v>
+        <v>2.695913406839877</v>
       </c>
       <c r="AG3">
-        <v>787.0952903959335</v>
+        <v>5.328980629530032</v>
       </c>
       <c r="AH3">
-        <v>0.4355201971301671</v>
+        <v>14.1119700172111</v>
       </c>
       <c r="AI3">
-        <v>324.7553273365774</v>
+        <v>0.3873198560794139</v>
       </c>
       <c r="AJ3">
-        <v>180.9038868086218</v>
+        <v>1.923392092772211</v>
       </c>
       <c r="AK3">
-        <v>0.4108752363231326</v>
+        <v>5.765670093976395</v>
       </c>
       <c r="AL3">
-        <v>0.3409263168789046</v>
+        <v>2.552100464642006</v>
       </c>
       <c r="AM3">
-        <v>605.9282270535587</v>
+        <v>9.451536041838468</v>
       </c>
       <c r="AN3">
-        <v>0.3537825957824807</v>
+        <v>0.3444898617760886</v>
       </c>
       <c r="AO3">
-        <v>0.3442256510379068</v>
+        <v>0.3541589037868328</v>
       </c>
       <c r="AP3">
-        <v>288.3641861108592</v>
+        <v>37.88623629449628</v>
       </c>
       <c r="AQ3">
-        <v>1334.481988547749</v>
+        <v>0.3704941608429398</v>
       </c>
       <c r="AR3">
-        <v>151.7937522771769</v>
+        <v>25.20464380138512</v>
       </c>
       <c r="AS3">
-        <v>276.4429852894936</v>
+        <v>24.96251008556372</v>
       </c>
       <c r="AT3">
-        <v>354.1848625831582</v>
+        <v>0.4558410667577748</v>
       </c>
       <c r="AU3">
-        <v>0.3689848136377034</v>
+        <v>68.13713715470858</v>
       </c>
       <c r="AV3">
-        <v>2292.876609129978</v>
+        <v>0.3616223693458702</v>
       </c>
       <c r="AW3">
-        <v>0.3554446594135406</v>
+        <v>0.3776272088098084</v>
       </c>
       <c r="AX3">
-        <v>4123.432247799539</v>
+        <v>27.06264295519581</v>
       </c>
       <c r="AY3">
-        <v>76.30933112543137</v>
+        <v>2.014884680487893</v>
       </c>
       <c r="AZ3">
-        <v>173.4117882874813</v>
+        <v>0.3374310150610859</v>
       </c>
       <c r="BA3">
-        <v>424.5616880078787</v>
+        <v>0.3660543758392108</v>
       </c>
       <c r="BB3">
-        <v>0.3575029640064022</v>
+        <v>15.56191404581429</v>
       </c>
       <c r="BC3">
-        <v>0.3495763847885537</v>
+        <v>8.613281340340288</v>
       </c>
       <c r="BD3">
-        <v>0.3869143142330344</v>
+        <v>1.842805680916903</v>
       </c>
       <c r="BE3">
-        <v>460.6567157029099</v>
+        <v>1.341529285529443</v>
       </c>
       <c r="BF3">
-        <v>0.3763189032846085</v>
+        <v>0.4237267971134963</v>
       </c>
       <c r="BG3">
-        <v>0.3385957654754472</v>
+        <v>12.87745492477111</v>
       </c>
       <c r="BH3">
-        <v>26.25835351436545</v>
+        <v>0.33456729960796</v>
       </c>
       <c r="BI3">
-        <v>2876.410917515</v>
+        <v>1.477214600017309</v>
       </c>
       <c r="BJ3">
-        <v>0.4072191502205301</v>
+        <v>25.18326846242271</v>
       </c>
       <c r="BK3">
-        <v>1340.797402371792</v>
+        <v>22.90275729362801</v>
       </c>
       <c r="BL3">
-        <v>1868.553834912263</v>
+        <v>22.85745821082459</v>
       </c>
       <c r="BM3">
-        <v>930.3590667859177</v>
+        <v>3.930663013302917</v>
       </c>
       <c r="BN3">
-        <v>1211.51046107774</v>
+        <v>1.478180832873482</v>
       </c>
       <c r="BO3">
-        <v>47.2233136035983</v>
+        <v>15.70497732959404</v>
       </c>
       <c r="BP3">
-        <v>468.8086834533192</v>
+        <v>47.83146277752351</v>
       </c>
       <c r="BQ3">
-        <v>12.67049489065568</v>
+        <v>0.3463518557007843</v>
       </c>
       <c r="BR3">
-        <v>0.334259892845665</v>
+        <v>13.68047411120017</v>
       </c>
       <c r="BS3">
-        <v>0.366185269222615</v>
+        <v>0.3617693073708318</v>
       </c>
       <c r="BT3">
-        <v>0.341218642024558</v>
+        <v>0.3786794285609202</v>
       </c>
       <c r="BU3">
-        <v>0.3507640440736866</v>
+        <v>0.3612715969302053</v>
       </c>
       <c r="BV3">
-        <v>7.052992438937266</v>
+        <v>3.840594991307422</v>
       </c>
       <c r="BW3">
-        <v>0.3475481295687081</v>
+        <v>0.4420929211254335</v>
       </c>
       <c r="BX3">
-        <v>0.3585705640077058</v>
+        <v>19.35877140066307</v>
       </c>
       <c r="BY3">
-        <v>298.5181585257296</v>
+        <v>6.551627578349192</v>
       </c>
       <c r="BZ3">
-        <v>417.365699725268</v>
+        <v>0.4868902272126641</v>
       </c>
       <c r="CA3">
-        <v>0.3696812996678724</v>
+        <v>15.94381656545558</v>
       </c>
       <c r="CB3">
-        <v>26.54300128522983</v>
+        <v>0.3673270558527579</v>
       </c>
       <c r="CC3">
-        <v>983.117732219623</v>
+        <v>6.040894163082278</v>
       </c>
       <c r="CD3">
-        <v>313.2756147569527</v>
+        <v>0.3347282013968557</v>
       </c>
       <c r="CE3">
-        <v>0.364683424604903</v>
+        <v>0.3499158116151245</v>
       </c>
       <c r="CF3">
-        <v>742.8302950217814</v>
+        <v>0.4281345571092275</v>
       </c>
       <c r="CG3">
-        <v>917.2395814589073</v>
+        <v>0.4419123444249879</v>
       </c>
       <c r="CH3">
-        <v>2.138890881947441</v>
+        <v>0.5647537185650346</v>
       </c>
       <c r="CI3">
-        <v>778.2983121248539</v>
+        <v>4.087541285775348</v>
       </c>
       <c r="CJ3">
-        <v>0.364846118019697</v>
+        <v>0.3408340913470481</v>
       </c>
       <c r="CK3">
-        <v>544.9316536260808</v>
+        <v>2.211011379937815</v>
       </c>
       <c r="CL3">
-        <v>2096.040925645018</v>
+        <v>2.809788052866436</v>
       </c>
       <c r="CM3">
-        <v>2622.777483331765</v>
+        <v>0.3513165651037645</v>
       </c>
       <c r="CN3">
-        <v>10.76861921865121</v>
+        <v>0.3640123130674307</v>
       </c>
       <c r="CO3">
-        <v>0.8996046277470766</v>
+        <v>0.4807861031677896</v>
       </c>
       <c r="CP3">
-        <v>46.96668405726388</v>
+        <v>74.81024747037819</v>
       </c>
       <c r="CQ3">
-        <v>179.0787789551201</v>
+        <v>0.3510321567234619</v>
       </c>
       <c r="CR3">
-        <v>0.3449565535103532</v>
+        <v>1.558256127959294</v>
       </c>
       <c r="CS3">
-        <v>1215.539903437936</v>
+        <v>7.126094856810928</v>
       </c>
       <c r="CT3">
-        <v>3259.183434916606</v>
+        <v>0.3697930110659517</v>
       </c>
       <c r="CU3">
-        <v>72.64211864856259</v>
+        <v>22.09507221984949</v>
       </c>
       <c r="CV3">
-        <v>990.8491351244223</v>
+        <v>0.3779754129043922</v>
       </c>
       <c r="CW3">
-        <v>301.1876164604705</v>
+        <v>2.789351574133196</v>
       </c>
       <c r="CX3">
-        <v>8.309293989928014</v>
+        <v>41.80024605574182</v>
       </c>
       <c r="CY3">
-        <v>197.502456923783</v>
+        <v>0.3629195542808346</v>
       </c>
       <c r="CZ3">
-        <v>49.06577903121418</v>
+        <v>0.4043430078926148</v>
       </c>
       <c r="DA3">
-        <v>73.75744236895117</v>
+        <v>0.3724223952063783</v>
       </c>
       <c r="DB3">
-        <v>0.3441609962766846</v>
+        <v>0.3440831212081531</v>
       </c>
       <c r="DC3">
-        <v>685.5451480494776</v>
+        <v>0.3397485543270487</v>
       </c>
       <c r="DD3">
-        <v>5936.811204342565</v>
+        <v>4.147223113337602</v>
       </c>
       <c r="DE3">
-        <v>1474.84956649897</v>
+        <v>6.102621578395692</v>
       </c>
       <c r="DF3">
-        <v>811.5202710049738</v>
+        <v>4.094901528237465</v>
       </c>
       <c r="DG3">
-        <v>0.344025074741652</v>
+        <v>0.3366547123564076</v>
       </c>
       <c r="DH3">
-        <v>525.1550753557823</v>
+        <v>0.3442771883863543</v>
       </c>
       <c r="DI3">
-        <v>0.3590405457252761</v>
+        <v>24.35977515196377</v>
       </c>
       <c r="DJ3">
-        <v>55.48310541553167</v>
+        <v>8.311383735516445</v>
       </c>
       <c r="DK3">
-        <v>1329.147568181772</v>
+        <v>5.512631875794414</v>
       </c>
       <c r="DL3">
-        <v>0.3607042136721993</v>
+        <v>6.711710735775098</v>
       </c>
       <c r="DM3">
-        <v>744.266837405971</v>
+        <v>0.3380969678341982</v>
       </c>
       <c r="DN3">
-        <v>0.3910722491115822</v>
+        <v>0.3633653942590126</v>
       </c>
       <c r="DO3">
-        <v>0.3734082024256791</v>
+        <v>0.3463696084541877</v>
       </c>
       <c r="DP3">
-        <v>6.793307976537228</v>
+        <v>0.3501048834706885</v>
       </c>
       <c r="DQ3">
-        <v>0.3441568574511289</v>
+        <v>0.3497161449346861</v>
       </c>
       <c r="DR3">
-        <v>0.3347076944433206</v>
+        <v>10.34840156973041</v>
       </c>
       <c r="DS3">
-        <v>253.6563215551195</v>
+        <v>34.93811336443132</v>
       </c>
       <c r="DT3">
-        <v>85.7859133256526</v>
+        <v>1.926546284572331</v>
       </c>
       <c r="DU3">
-        <v>0.3355591181519046</v>
+        <v>0.338500386883019</v>
       </c>
       <c r="DV3">
-        <v>178.2708903290172</v>
+        <v>2.148379747365594</v>
       </c>
       <c r="DW3">
-        <v>150.9105253246919</v>
+        <v>3.609287392442837</v>
       </c>
       <c r="DX3">
-        <v>4.295922761288498</v>
+        <v>2.476986282854614</v>
       </c>
       <c r="DY3">
-        <v>0.3445007219134355</v>
+        <v>0.3539739191611228</v>
       </c>
       <c r="DZ3">
-        <v>0.3931539282064386</v>
+        <v>0.3823937558273194</v>
       </c>
       <c r="EA3">
-        <v>3539.753492734867</v>
+        <v>2.410589012647282</v>
       </c>
       <c r="EB3">
-        <v>848.3957003724507</v>
+        <v>34.14690213539648</v>
       </c>
       <c r="EC3">
-        <v>0.3452081032145864</v>
+        <v>16.99068724954034</v>
       </c>
       <c r="ED3">
-        <v>0.4110864386703146</v>
+        <v>0.7433778671272939</v>
       </c>
       <c r="EE3">
-        <v>0.3859265934607021</v>
+        <v>1.228981843205615</v>
       </c>
       <c r="EF3">
-        <v>0.3461461149763407</v>
+        <v>5.542994005316799</v>
       </c>
       <c r="EG3">
-        <v>421.3242150710744</v>
+        <v>38.58687436696301</v>
       </c>
       <c r="EH3">
-        <v>26100.14890922288</v>
+        <v>5.409631539656699</v>
       </c>
       <c r="EI3">
-        <v>2863.303032772624</v>
+        <v>0.468893977937867</v>
       </c>
       <c r="EJ3">
-        <v>0.3693163231153522</v>
+        <v>0.4426814312385511</v>
       </c>
       <c r="EK3">
-        <v>178.0098288686203</v>
+        <v>1.702231132215781</v>
       </c>
       <c r="EL3">
-        <v>2080.350362402129</v>
+        <v>0.4286803486663979</v>
       </c>
       <c r="EM3">
-        <v>4484.737382612378</v>
+        <v>0.3611609846473767</v>
       </c>
       <c r="EN3">
-        <v>1389.357867995141</v>
+        <v>0.3425325536997343</v>
       </c>
       <c r="EO3">
-        <v>4.133822536659311</v>
+        <v>75.96388615018243</v>
       </c>
       <c r="EP3">
-        <v>741.9016857840755</v>
+        <v>0.3490604516298095</v>
       </c>
       <c r="EQ3">
-        <v>611.4139946729712</v>
+        <v>4.88174283535469</v>
       </c>
       <c r="ER3">
-        <v>140.698978540201</v>
+        <v>0.3590703033037583</v>
       </c>
       <c r="ES3">
-        <v>26.43168938835564</v>
+        <v>0.4220797037678745</v>
       </c>
       <c r="ET3">
-        <v>475.1669290664528</v>
+        <v>9.315064290503569</v>
       </c>
       <c r="EU3">
-        <v>357.12859933837</v>
+        <v>0.3468071765991</v>
       </c>
       <c r="EV3">
-        <v>589.2199207799696</v>
+        <v>3.665382918005968</v>
       </c>
       <c r="EW3">
-        <v>0.3333561488793057</v>
+        <v>2.423759849828135</v>
       </c>
       <c r="EX3">
-        <v>2175.040207681499</v>
+        <v>0.370640514281084</v>
       </c>
       <c r="EY3">
-        <v>0.3351690925099441</v>
+        <v>0.3348965378641174</v>
       </c>
       <c r="EZ3">
-        <v>5545.554033892663</v>
+        <v>0.3450914372372637</v>
       </c>
       <c r="FA3">
-        <v>631.77022591089</v>
+        <v>0.3554520958607513</v>
       </c>
       <c r="FB3">
-        <v>0.3387833671896914</v>
+        <v>0.3373429094346196</v>
       </c>
       <c r="FC3">
-        <v>0.336678783047129</v>
+        <v>0.3791294641988533</v>
       </c>
       <c r="FD3">
-        <v>76.80684191637918</v>
+        <v>0.3357044149948043</v>
       </c>
       <c r="FE3">
-        <v>60.110810335262</v>
+        <v>28.51693421401973</v>
       </c>
       <c r="FF3">
-        <v>0.3828221049977071</v>
+        <v>41.01311862559236</v>
       </c>
       <c r="FG3">
-        <v>57.01106715288764</v>
+        <v>2.733392869993008</v>
       </c>
       <c r="FH3">
-        <v>0.3586649277442886</v>
+        <v>0.4299145286781914</v>
       </c>
       <c r="FI3">
-        <v>2454.180334072447</v>
+        <v>1.879766991326344</v>
       </c>
       <c r="FJ3">
-        <v>69.30093362412882</v>
+        <v>12.86490617370277</v>
       </c>
       <c r="FK3">
-        <v>1412.759514122258</v>
+        <v>0.3684175983274407</v>
       </c>
       <c r="FL3">
-        <v>0.3446608658983801</v>
+        <v>0.3417704157310601</v>
       </c>
       <c r="FM3">
-        <v>402.0947724293986</v>
+        <v>0.3608254919695963</v>
       </c>
       <c r="FN3">
-        <v>36.9126705664774</v>
+        <v>19.95085997240881</v>
       </c>
       <c r="FO3">
-        <v>0.3974485809376382</v>
+        <v>4.819646561494757</v>
       </c>
       <c r="FP3">
-        <v>0.3684340083934628</v>
+        <v>0.3476390191102145</v>
       </c>
       <c r="FQ3">
-        <v>0.344880332402888</v>
+        <v>0.3576084283583795</v>
       </c>
       <c r="FR3">
-        <v>0.3406519318944697</v>
+        <v>11.87461070679947</v>
       </c>
       <c r="FS3">
-        <v>262.4049312931564</v>
+        <v>6.628251945809173</v>
       </c>
       <c r="FT3">
-        <v>0.3426517178444819</v>
+        <v>19.98495376781553</v>
       </c>
       <c r="FU3">
-        <v>6.428007432516929</v>
+        <v>30.20249798646178</v>
       </c>
       <c r="FV3">
-        <v>570.33495273477</v>
+        <v>0.3501243617485436</v>
       </c>
       <c r="FW3">
-        <v>746.7278161488134</v>
+        <v>0.3401874296096508</v>
       </c>
       <c r="FX3">
-        <v>1384.809108484582</v>
+        <v>55.89781571890316</v>
       </c>
       <c r="FY3">
-        <v>243.934030658285</v>
+        <v>2.092117299238704</v>
       </c>
       <c r="FZ3">
-        <v>1367.323151101814</v>
+        <v>7.836705310809369</v>
       </c>
       <c r="GA3">
-        <v>0.3597716379953588</v>
+        <v>3.095504884383663</v>
       </c>
       <c r="GB3">
-        <v>0.3428091481885046</v>
+        <v>14.85869277220652</v>
       </c>
       <c r="GC3">
-        <v>0.3397723982965834</v>
+        <v>0.3641314104358002</v>
       </c>
       <c r="GD3">
-        <v>26.52487897006002</v>
+        <v>26.43244493281304</v>
       </c>
       <c r="GE3">
-        <v>0.3351139363555201</v>
+        <v>61.19087104785893</v>
       </c>
       <c r="GF3">
-        <v>3.55747985488637</v>
+        <v>2.456907662448879</v>
       </c>
       <c r="GG3">
-        <v>0.3428206593846302</v>
+        <v>16.70346866800788</v>
       </c>
       <c r="GH3">
-        <v>3.966318101477492</v>
+        <v>35.39693419799563</v>
       </c>
       <c r="GI3">
-        <v>0.3369642165908707</v>
+        <v>0.3517210086759014</v>
       </c>
       <c r="GJ3">
-        <v>222.5950754198361</v>
+        <v>0.3462130739055857</v>
       </c>
       <c r="GK3">
-        <v>147.6958681329999</v>
+        <v>0.3446111494322395</v>
       </c>
       <c r="GL3">
-        <v>731.3455777614322</v>
+        <v>0.361061327540224</v>
       </c>
       <c r="GM3">
-        <v>4.221136262362577</v>
+        <v>0.7047025879375964</v>
       </c>
       <c r="GN3">
-        <v>0.3568248094729267</v>
+        <v>23.89458595259998</v>
       </c>
       <c r="GO3">
-        <v>1759.152346755359</v>
+        <v>0.3753205976768417</v>
       </c>
       <c r="GP3">
-        <v>11.38916075864589</v>
+        <v>48.20096969146202</v>
       </c>
       <c r="GQ3">
-        <v>27.78964951108292</v>
+        <v>36.58036411013942</v>
       </c>
       <c r="GR3">
-        <v>291.8748247673644</v>
+        <v>23.51847766493677</v>
       </c>
       <c r="GS3">
-        <v>0.3493041281306753</v>
+        <v>0.6078425420553947</v>
+      </c>
+      <c r="GT3">
+        <v>10.93255803663413</v>
+      </c>
+      <c r="GU3">
+        <v>0.3788185331514475</v>
+      </c>
+      <c r="GV3">
+        <v>4.901138599255555</v>
+      </c>
+      <c r="GW3">
+        <v>1.141970612063047</v>
+      </c>
+      <c r="GX3">
+        <v>0.3908108345071535</v>
+      </c>
+      <c r="GY3">
+        <v>3.432159468207092</v>
+      </c>
+      <c r="GZ3">
+        <v>6.873473401838422</v>
+      </c>
+      <c r="HA3">
+        <v>0.3996598650310519</v>
+      </c>
+      <c r="HB3">
+        <v>0.3552933773457214</v>
+      </c>
+      <c r="HC3">
+        <v>0.3396598566557609</v>
+      </c>
+      <c r="HD3">
+        <v>8.692630616305559</v>
+      </c>
+      <c r="HE3">
+        <v>0.4330516838017334</v>
+      </c>
+      <c r="HF3">
+        <v>0.3712144017581481</v>
+      </c>
+      <c r="HG3">
+        <v>0.4088083468936277</v>
+      </c>
+      <c r="HH3">
+        <v>0.3620057022747831</v>
+      </c>
+      <c r="HI3">
+        <v>0.3358844286621816</v>
+      </c>
+      <c r="HJ3">
+        <v>0.352471770966608</v>
+      </c>
+      <c r="HK3">
+        <v>32.7045677561113</v>
+      </c>
+      <c r="HL3">
+        <v>0.3839249504840409</v>
+      </c>
+      <c r="HM3">
+        <v>21.18367513373264</v>
+      </c>
+      <c r="HN3">
+        <v>0.3662170420355854</v>
+      </c>
+      <c r="HO3">
+        <v>0.3408309383471326</v>
+      </c>
+      <c r="HP3">
+        <v>23.86928230949168</v>
+      </c>
+      <c r="HQ3">
+        <v>0.3361643488126745</v>
+      </c>
+      <c r="HR3">
+        <v>0.3431171176898379</v>
+      </c>
+      <c r="HS3">
+        <v>0.3539754061216691</v>
+      </c>
+      <c r="HT3">
+        <v>4.490058795010343</v>
+      </c>
+      <c r="HU3">
+        <v>0.7895673215587045</v>
+      </c>
+      <c r="HV3">
+        <v>1.733965610478757</v>
+      </c>
+      <c r="HW3">
+        <v>0.3353356372282453</v>
+      </c>
+      <c r="HX3">
+        <v>0.3472420134854045</v>
+      </c>
+      <c r="HY3">
+        <v>6.915585935952186</v>
+      </c>
+      <c r="HZ3">
+        <v>0.3647934778814497</v>
+      </c>
+      <c r="IA3">
+        <v>0.3474592491082721</v>
+      </c>
+      <c r="IB3">
+        <v>12.07970565778523</v>
+      </c>
+      <c r="IC3">
+        <v>0.3450980730479896</v>
+      </c>
+      <c r="ID3">
+        <v>0.3346604289420136</v>
+      </c>
+      <c r="IE3">
+        <v>0.3510362596553276</v>
+      </c>
+      <c r="IF3">
+        <v>4.260417222568465</v>
+      </c>
+      <c r="IG3">
+        <v>46.23892295724458</v>
+      </c>
+      <c r="IH3">
+        <v>68.15643952574953</v>
+      </c>
+      <c r="II3">
+        <v>3.133724556889243</v>
+      </c>
+      <c r="IJ3">
+        <v>3.253541847874256</v>
+      </c>
+      <c r="IK3">
+        <v>0.4575947513336167</v>
+      </c>
+      <c r="IL3">
+        <v>1.181314421436694</v>
+      </c>
+      <c r="IM3">
+        <v>0.3392976345003202</v>
+      </c>
+      <c r="IN3">
+        <v>0.3995128653299488</v>
+      </c>
+      <c r="IO3">
+        <v>0.6505039047849344</v>
+      </c>
+      <c r="IP3">
+        <v>0.3583740670746853</v>
+      </c>
+      <c r="IQ3">
+        <v>0.6391511345171221</v>
+      </c>
+      <c r="IR3">
+        <v>20.59975355167563</v>
+      </c>
+      <c r="IS3">
+        <v>51.79210018189898</v>
+      </c>
+      <c r="IT3">
+        <v>10.31747532859355</v>
+      </c>
+      <c r="IU3">
+        <v>1.460703213984699</v>
+      </c>
+      <c r="IV3">
+        <v>2.120319354761495</v>
+      </c>
+      <c r="IW3">
+        <v>0.4602432759584247</v>
+      </c>
+      <c r="IX3">
+        <v>3.755395918934781</v>
+      </c>
+      <c r="IY3">
+        <v>178.2474006126707</v>
+      </c>
+      <c r="IZ3">
+        <v>0.350268800859193</v>
+      </c>
+      <c r="JA3">
+        <v>0.3351879734008272</v>
+      </c>
+      <c r="JB3">
+        <v>0.5171450437741876</v>
+      </c>
+      <c r="JC3">
+        <v>0.3424132125443431</v>
+      </c>
+      <c r="JD3">
+        <v>0.3618221086213952</v>
+      </c>
+      <c r="JE3">
+        <v>0.3799309188776014</v>
+      </c>
+      <c r="JF3">
+        <v>0.3660516285392764</v>
+      </c>
+      <c r="JG3">
+        <v>0.3597469894993814</v>
+      </c>
+      <c r="JH3">
+        <v>1.516301117637186</v>
+      </c>
+      <c r="JI3">
+        <v>1.565772178309606</v>
+      </c>
+      <c r="JJ3">
+        <v>1.570840776493056</v>
+      </c>
+      <c r="JK3">
+        <v>1.811663961181376</v>
+      </c>
+      <c r="JL3">
+        <v>11.80632781612642</v>
+      </c>
+      <c r="JM3">
+        <v>2.588513341619897</v>
+      </c>
+      <c r="JN3">
+        <v>55.03286700902662</v>
+      </c>
+      <c r="JO3">
+        <v>2.00352535370232</v>
+      </c>
+      <c r="JP3">
+        <v>6.541654032582553</v>
+      </c>
+      <c r="JQ3">
+        <v>8.097020096277678</v>
+      </c>
+      <c r="JR3">
+        <v>7.773842308839551</v>
+      </c>
+      <c r="JS3">
+        <v>2.484019475068092</v>
+      </c>
+      <c r="JT3">
+        <v>4.418443890849568</v>
+      </c>
+      <c r="JU3">
+        <v>3.72110661562944</v>
+      </c>
+      <c r="JV3">
+        <v>0.3367072405337417</v>
+      </c>
+      <c r="JW3">
+        <v>0.3548959728273919</v>
+      </c>
+      <c r="JX3">
+        <v>2.980854594626218</v>
+      </c>
+      <c r="JY3">
+        <v>35.01493291298353</v>
+      </c>
+      <c r="JZ3">
+        <v>0.3350112921749036</v>
+      </c>
+      <c r="KA3">
+        <v>0.3421023695882497</v>
+      </c>
+      <c r="KB3">
+        <v>0.385269180713713</v>
+      </c>
+      <c r="KC3">
+        <v>0.3478015799789096</v>
+      </c>
+      <c r="KD3">
+        <v>4.865610833570023</v>
+      </c>
+      <c r="KE3">
+        <v>0.3830851649193776</v>
+      </c>
+      <c r="KF3">
+        <v>0.3389329488228889</v>
+      </c>
+      <c r="KG3">
+        <v>1.03359301925701</v>
+      </c>
+      <c r="KH3">
+        <v>0.3788306215094205</v>
+      </c>
+      <c r="KI3">
+        <v>0.3492048247429449</v>
+      </c>
+      <c r="KJ3">
+        <v>0.3408864475155569</v>
+      </c>
+      <c r="KK3">
+        <v>80.45715146363702</v>
+      </c>
+      <c r="KL3">
+        <v>29.14360858166705</v>
+      </c>
+      <c r="KM3">
+        <v>3.611049148417874</v>
+      </c>
+      <c r="KN3">
+        <v>0.5891654036661718</v>
+      </c>
+      <c r="KO3">
+        <v>0.3365923806430709</v>
+      </c>
+      <c r="KP3">
+        <v>11.43508132421206</v>
+      </c>
+      <c r="KQ3">
+        <v>3.536648840416362</v>
+      </c>
+      <c r="KR3">
+        <v>0.3352388825529398</v>
+      </c>
+      <c r="KS3">
+        <v>0.3524839545883551</v>
+      </c>
+      <c r="KT3">
+        <v>0.353531383313106</v>
+      </c>
+      <c r="KU3">
+        <v>0.3455256320929682</v>
+      </c>
+      <c r="KV3">
+        <v>0.3424875788739661</v>
+      </c>
+      <c r="KW3">
+        <v>0.3404962427665267</v>
+      </c>
+      <c r="KX3">
+        <v>17.82129214620775</v>
+      </c>
+      <c r="KY3">
+        <v>3.534516736316216</v>
+      </c>
+      <c r="KZ3">
+        <v>0.3467379312846228</v>
+      </c>
+      <c r="LA3">
+        <v>0.9656115519077693</v>
+      </c>
+      <c r="LB3">
+        <v>2.903678824053602</v>
+      </c>
+      <c r="LC3">
+        <v>0.3354497108166909</v>
+      </c>
+      <c r="LD3">
+        <v>0.3420985965860247</v>
+      </c>
+      <c r="LE3">
+        <v>0.413197861651813</v>
+      </c>
+      <c r="LF3">
+        <v>0.6310364473283896</v>
+      </c>
+      <c r="LG3">
+        <v>0.3510300746382847</v>
+      </c>
+      <c r="LH3">
+        <v>0.352333579755601</v>
+      </c>
+      <c r="LI3">
+        <v>0.3492020594584119</v>
+      </c>
+      <c r="LJ3">
+        <v>0.3351489841920106</v>
+      </c>
+      <c r="LK3">
+        <v>0.7954462676392547</v>
+      </c>
+      <c r="LL3">
+        <v>8.890366027878445</v>
+      </c>
+      <c r="LM3">
+        <v>22.5364291624788</v>
+      </c>
+      <c r="LN3">
+        <v>61.7133831364485</v>
+      </c>
+      <c r="LO3">
+        <v>18.92044930658657</v>
+      </c>
+      <c r="LP3">
+        <v>3.615685834375138</v>
+      </c>
+      <c r="LQ3">
+        <v>0.3485189341980402</v>
+      </c>
+      <c r="LR3">
+        <v>6.331163007146389</v>
+      </c>
+      <c r="LS3">
+        <v>0.4002490118141914</v>
+      </c>
+      <c r="LT3">
+        <v>5.429554922144152</v>
+      </c>
+      <c r="LU3">
+        <v>0.4272174299625338</v>
+      </c>
+      <c r="LV3">
+        <v>22.23497801461688</v>
+      </c>
+      <c r="LW3">
+        <v>14.74635504109486</v>
+      </c>
+      <c r="LX3">
+        <v>0.3436416354028389</v>
+      </c>
+      <c r="LY3">
+        <v>26.37416064171866</v>
+      </c>
+      <c r="LZ3">
+        <v>14.5197013595839</v>
+      </c>
+      <c r="MA3">
+        <v>15.63539633591865</v>
+      </c>
+      <c r="MB3">
+        <v>0.3418455109381703</v>
+      </c>
+      <c r="MC3">
+        <v>24.88158811007423</v>
+      </c>
+      <c r="MD3">
+        <v>8.561203319364296</v>
+      </c>
+      <c r="ME3">
+        <v>3.216550946022999</v>
+      </c>
+      <c r="MF3">
+        <v>16.70674210377877</v>
+      </c>
+      <c r="MG3">
+        <v>2.79535236536017</v>
+      </c>
+      <c r="MH3">
+        <v>0.5152677548733966</v>
+      </c>
+      <c r="MI3">
+        <v>10.07379608806195</v>
+      </c>
+      <c r="MJ3">
+        <v>29.99435667449589</v>
+      </c>
+      <c r="MK3">
+        <v>1.401416930414816</v>
+      </c>
+      <c r="ML3">
+        <v>1.431556834208489</v>
+      </c>
+      <c r="MM3">
+        <v>35.72297204073689</v>
+      </c>
+      <c r="MN3">
+        <v>2.57512442274053</v>
+      </c>
+      <c r="MO3">
+        <v>0.3555000709425609</v>
+      </c>
+      <c r="MP3">
+        <v>18.10504969776464</v>
+      </c>
+      <c r="MQ3">
+        <v>2.196326422738555</v>
+      </c>
+      <c r="MR3">
+        <v>7.94004570022035</v>
+      </c>
+      <c r="MS3">
+        <v>22.06783961911013</v>
+      </c>
+      <c r="MT3">
+        <v>0.3791003607656755</v>
+      </c>
+      <c r="MU3">
+        <v>26.60050420182596</v>
+      </c>
+      <c r="MV3">
+        <v>1.1669548939344</v>
+      </c>
+      <c r="MW3">
+        <v>0.3411414836208007</v>
+      </c>
+      <c r="MX3">
+        <v>0.339099689430202</v>
+      </c>
+      <c r="MY3">
+        <v>0.33875461559635</v>
+      </c>
+      <c r="MZ3">
+        <v>0.3601823509156005</v>
+      </c>
+      <c r="NA3">
+        <v>31.93292082746288</v>
+      </c>
+      <c r="NB3">
+        <v>0.456958601404944</v>
+      </c>
+      <c r="NC3">
+        <v>7.784512354598634</v>
+      </c>
+      <c r="ND3">
+        <v>46.15486756778535</v>
+      </c>
+      <c r="NE3">
+        <v>10.31738875179296</v>
+      </c>
+      <c r="NF3">
+        <v>0.464385186337294</v>
+      </c>
+      <c r="NG3">
+        <v>26.66839391084373</v>
+      </c>
+      <c r="NH3">
+        <v>8.203860754442196</v>
+      </c>
+      <c r="NI3">
+        <v>8.797533798998492</v>
+      </c>
+      <c r="NJ3">
+        <v>3.17919052669821</v>
+      </c>
+      <c r="NK3">
+        <v>1.602896064010436</v>
+      </c>
+      <c r="NL3">
+        <v>24.6114725559508</v>
+      </c>
+      <c r="NM3">
+        <v>2.008328551415184</v>
+      </c>
+      <c r="NN3">
+        <v>36.14982048065203</v>
+      </c>
+      <c r="NO3">
+        <v>0.3894121208812465</v>
+      </c>
+      <c r="NP3">
+        <v>0.3439581532019554</v>
+      </c>
+      <c r="NQ3">
+        <v>0.3374722981032872</v>
+      </c>
+      <c r="NR3">
+        <v>0.4641466216854285</v>
+      </c>
+      <c r="NS3">
+        <v>0.4324834353557437</v>
+      </c>
+      <c r="NT3">
+        <v>0.3544511917981468</v>
+      </c>
+      <c r="NU3">
+        <v>0.3537966858386589</v>
+      </c>
+      <c r="NV3">
+        <v>15.5587011553464</v>
+      </c>
+      <c r="NW3">
+        <v>67.05525544233959</v>
+      </c>
+      <c r="NX3">
+        <v>1.251592478703658</v>
+      </c>
+      <c r="NY3">
+        <v>0.3418311410424983</v>
+      </c>
+      <c r="NZ3">
+        <v>117.6963445016986</v>
+      </c>
+      <c r="OA3">
+        <v>39.938870874018</v>
+      </c>
+      <c r="OB3">
+        <v>0.377008832349961</v>
+      </c>
+      <c r="OC3">
+        <v>0.4041695270708366</v>
+      </c>
+      <c r="OD3">
+        <v>0.3431708825744795</v>
+      </c>
+      <c r="OE3">
+        <v>3.900836724600444</v>
+      </c>
+      <c r="OF3">
+        <v>0.3397956898553885</v>
+      </c>
+      <c r="OG3">
+        <v>1.531036191255146</v>
+      </c>
+      <c r="OH3">
+        <v>0.3615354081451502</v>
+      </c>
+      <c r="OI3">
+        <v>4.869337238181817</v>
+      </c>
+      <c r="OJ3">
+        <v>0.3608269923710294</v>
+      </c>
+      <c r="OK3">
+        <v>7.64209811860404</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>626.1712168133994</v>
+        <v>0.4109776581905968</v>
       </c>
       <c r="C4">
-        <v>687.0925127021904</v>
+        <v>11.70405371227323</v>
       </c>
       <c r="D4">
-        <v>1435.715020499509</v>
+        <v>0.8506950283647527</v>
       </c>
       <c r="E4">
-        <v>301.8565775042453</v>
+        <v>6.883562190096806</v>
       </c>
       <c r="F4">
-        <v>971.3645934991714</v>
+        <v>31.08254474502131</v>
       </c>
       <c r="G4">
-        <v>1318.16157772683</v>
+        <v>6.97160265917259</v>
       </c>
       <c r="H4">
-        <v>2428.190121933372</v>
+        <v>0.416485325699729</v>
       </c>
       <c r="I4">
-        <v>915.1113057496382</v>
+        <v>0.3627667496535107</v>
       </c>
       <c r="J4">
-        <v>3023.811718442254</v>
+        <v>3.485649872112492</v>
       </c>
       <c r="K4">
-        <v>121.2395467640866</v>
+        <v>0.3621233565035243</v>
       </c>
       <c r="L4">
-        <v>295.2063748259761</v>
+        <v>4.752187709728498</v>
       </c>
       <c r="M4">
-        <v>882.3055800370862</v>
+        <v>0.5906130158311618</v>
       </c>
       <c r="N4">
-        <v>514.6091930985202</v>
+        <v>5.577071158328286</v>
       </c>
       <c r="O4">
-        <v>55.75478121031851</v>
+        <v>48.57504065760227</v>
       </c>
       <c r="P4">
-        <v>298.5434878162185</v>
+        <v>15.95622116645946</v>
       </c>
       <c r="Q4">
-        <v>16259.0731148881</v>
+        <v>24.79594224858235</v>
       </c>
       <c r="R4">
-        <v>1088.817898035711</v>
+        <v>0.3444779350228035</v>
       </c>
       <c r="S4">
-        <v>801.1464143651216</v>
+        <v>3.262162430126992</v>
       </c>
       <c r="T4">
-        <v>845.2721432653151</v>
+        <v>0.3476123122954893</v>
       </c>
       <c r="U4">
-        <v>517.7748984433766</v>
+        <v>4.727321273356498</v>
       </c>
       <c r="V4">
-        <v>1218.004569773837</v>
+        <v>58.68851330994169</v>
       </c>
       <c r="W4">
-        <v>216.3122102621037</v>
+        <v>113.3648034441423</v>
       </c>
       <c r="X4">
-        <v>0.4244042001322942</v>
+        <v>1.199332949322162</v>
       </c>
       <c r="Y4">
-        <v>1.30144778961436</v>
+        <v>6.987042873328529</v>
       </c>
       <c r="Z4">
-        <v>0.3806415660910234</v>
+        <v>0.355807050753714</v>
       </c>
       <c r="AA4">
-        <v>1933.332693975123</v>
+        <v>8.227755709924439</v>
       </c>
       <c r="AB4">
-        <v>307.0303712565433</v>
+        <v>0.4008304436120207</v>
       </c>
       <c r="AC4">
-        <v>1836.064481616045</v>
+        <v>0.3362639392924335</v>
       </c>
       <c r="AD4">
-        <v>87.0127712372331</v>
+        <v>7.229300967059133</v>
       </c>
       <c r="AE4">
-        <v>637.4466320206614</v>
+        <v>0.3986462276896052</v>
       </c>
       <c r="AF4">
-        <v>63.94113405677483</v>
+        <v>0.3397714087492175</v>
       </c>
       <c r="AG4">
-        <v>23.50552866412622</v>
+        <v>0.377320608623667</v>
       </c>
       <c r="AH4">
-        <v>3845.535714148772</v>
+        <v>0.3439576672109043</v>
       </c>
       <c r="AI4">
-        <v>443.8005233555942</v>
+        <v>11.63933864489064</v>
       </c>
       <c r="AJ4">
-        <v>265.7342800685141</v>
+        <v>2.893897671710262</v>
       </c>
       <c r="AK4">
-        <v>484.2303181535314</v>
+        <v>0.3847561191043468</v>
       </c>
       <c r="AL4">
-        <v>226.3170906088129</v>
+        <v>0.3368388615745771</v>
       </c>
       <c r="AM4">
-        <v>292.6669318915615</v>
+        <v>0.3391497988830382</v>
       </c>
       <c r="AN4">
-        <v>392.2826626717357</v>
+        <v>7.175792014169994</v>
       </c>
       <c r="AO4">
-        <v>0.3334865463109656</v>
+        <v>0.4755572250960165</v>
       </c>
       <c r="AP4">
-        <v>696.1523189699632</v>
+        <v>0.376976879623012</v>
       </c>
       <c r="AQ4">
-        <v>462.330021870719</v>
+        <v>0.3500684591147177</v>
       </c>
       <c r="AR4">
-        <v>744.9281606796463</v>
+        <v>18.73681169095672</v>
       </c>
       <c r="AS4">
-        <v>584.6056437020324</v>
+        <v>16.17720141727171</v>
       </c>
       <c r="AT4">
-        <v>1681.424555832299</v>
+        <v>0.3874109209281466</v>
       </c>
       <c r="AU4">
-        <v>0.3673997301685725</v>
+        <v>70.96691812526704</v>
       </c>
       <c r="AV4">
-        <v>577.4232722816262</v>
+        <v>24.11646482559027</v>
       </c>
       <c r="AW4">
-        <v>49.76196066717692</v>
+        <v>3.285456455200125</v>
       </c>
       <c r="AX4">
-        <v>0.3917650913758612</v>
+        <v>0.3555261620276771</v>
       </c>
       <c r="AY4">
-        <v>550.3137406296502</v>
+        <v>0.3439901713142172</v>
       </c>
       <c r="AZ4">
-        <v>294.2329398179266</v>
+        <v>1.928954348391142</v>
       </c>
       <c r="BA4">
-        <v>569.8589757000548</v>
+        <v>5.794224380519523</v>
       </c>
       <c r="BB4">
-        <v>85.65271923253808</v>
+        <v>0.3566010705964845</v>
       </c>
       <c r="BC4">
-        <v>185.7189847145534</v>
+        <v>0.3418815337191051</v>
       </c>
       <c r="BD4">
-        <v>0.3608285985136382</v>
+        <v>0.3350445449297552</v>
       </c>
       <c r="BE4">
-        <v>2567.704661193049</v>
+        <v>3.203252552576987</v>
       </c>
       <c r="BF4">
-        <v>1608.470499697109</v>
+        <v>3.463217042708703</v>
       </c>
       <c r="BG4">
-        <v>3.016878021382781</v>
+        <v>0.382316795784473</v>
       </c>
       <c r="BH4">
-        <v>556.3488189855016</v>
+        <v>0.3385376449511039</v>
       </c>
       <c r="BI4">
-        <v>1678.57088078983</v>
+        <v>0.3363596174890947</v>
       </c>
       <c r="BJ4">
-        <v>19.35078970014514</v>
+        <v>9.400326333835894</v>
       </c>
       <c r="BK4">
-        <v>1653.825931560431</v>
+        <v>0.3725614314733242</v>
       </c>
       <c r="BL4">
-        <v>556.4508332023512</v>
+        <v>12.7308462441488</v>
       </c>
       <c r="BM4">
-        <v>442.7136163575259</v>
+        <v>0.3352390013563937</v>
       </c>
       <c r="BN4">
-        <v>0.3708762457359904</v>
+        <v>14.87819031505094</v>
       </c>
       <c r="BO4">
-        <v>816.4008184725358</v>
+        <v>0.3475035515101548</v>
       </c>
       <c r="BP4">
-        <v>935.9207521747589</v>
+        <v>5.375327019711001</v>
       </c>
       <c r="BQ4">
-        <v>504.9928142194815</v>
+        <v>2.511979572356601</v>
       </c>
       <c r="BR4">
-        <v>0.3348596404909369</v>
+        <v>0.3532401912640191</v>
       </c>
       <c r="BS4">
-        <v>0.3399694298219378</v>
+        <v>166.5064799737087</v>
       </c>
       <c r="BT4">
-        <v>699.3090063207</v>
+        <v>45.61102212181283</v>
       </c>
       <c r="BU4">
-        <v>219.3135270331169</v>
+        <v>0.3584877161464987</v>
       </c>
       <c r="BV4">
-        <v>181.5883772970635</v>
+        <v>19.8702511392653</v>
       </c>
       <c r="BW4">
-        <v>335.3087432330328</v>
+        <v>0.4024716493812431</v>
       </c>
       <c r="BX4">
-        <v>1242.809084834491</v>
+        <v>1.26178638543325</v>
       </c>
       <c r="BY4">
-        <v>59.72175619395237</v>
+        <v>11.88675662503417</v>
       </c>
       <c r="BZ4">
-        <v>384.2177471387355</v>
+        <v>4.57270764925568</v>
       </c>
       <c r="CA4">
-        <v>1192.613788127968</v>
+        <v>44.61435472990729</v>
       </c>
       <c r="CB4">
-        <v>3045.919464043899</v>
+        <v>6.224452747349816</v>
       </c>
       <c r="CC4">
-        <v>75.51286710325029</v>
+        <v>3.205590535712687</v>
       </c>
       <c r="CD4">
-        <v>4045.2824480799</v>
+        <v>2.960171731619525</v>
       </c>
       <c r="CE4">
-        <v>2.461177072522983</v>
+        <v>2.988441551291151</v>
       </c>
       <c r="CF4">
-        <v>80.82359368015797</v>
+        <v>9.736762977479875</v>
       </c>
       <c r="CG4">
-        <v>273.9194599903597</v>
+        <v>14.84569782881516</v>
       </c>
       <c r="CH4">
-        <v>0.3385807138509507</v>
+        <v>28.90930612036056</v>
       </c>
       <c r="CI4">
-        <v>0.3485440675557938</v>
+        <v>32.47122598761332</v>
       </c>
       <c r="CJ4">
-        <v>44.12464901195905</v>
+        <v>0.3637151510580429</v>
       </c>
       <c r="CK4">
-        <v>85.73302781494471</v>
+        <v>0.3506636777460746</v>
       </c>
       <c r="CL4">
-        <v>0.3505303123051581</v>
+        <v>11.83329649788012</v>
       </c>
       <c r="CM4">
-        <v>1021.6234037807</v>
+        <v>0.4302167701888294</v>
       </c>
       <c r="CN4">
-        <v>0.3859846481276414</v>
+        <v>512.319262944774</v>
       </c>
       <c r="CO4">
-        <v>720.51383044361</v>
+        <v>20.49042681216059</v>
       </c>
       <c r="CP4">
-        <v>729.6669151201663</v>
+        <v>15.40002534680018</v>
       </c>
       <c r="CQ4">
-        <v>3292.117147147715</v>
+        <v>9.49462658653195</v>
       </c>
       <c r="CR4">
-        <v>353.3151070762028</v>
+        <v>0.3494083086417262</v>
       </c>
       <c r="CS4">
-        <v>512.989707659169</v>
+        <v>1.643652833988502</v>
       </c>
       <c r="CT4">
-        <v>760.5304317944192</v>
+        <v>4.848505518753717</v>
       </c>
       <c r="CU4">
-        <v>400.9984534310942</v>
+        <v>0.4040512711498592</v>
       </c>
       <c r="CV4">
-        <v>1376.028399830852</v>
+        <v>6.721136196832025</v>
       </c>
       <c r="CW4">
-        <v>2172.449915987831</v>
+        <v>0.3442055213405474</v>
       </c>
       <c r="CX4">
-        <v>188.3477571185468</v>
+        <v>0.3998026636404296</v>
       </c>
       <c r="CY4">
-        <v>193.5431877399726</v>
+        <v>0.3578917678505402</v>
       </c>
       <c r="CZ4">
-        <v>634.514560870778</v>
+        <v>0.3736025900347266</v>
       </c>
       <c r="DA4">
-        <v>1109.84289101453</v>
+        <v>41.12281228783574</v>
       </c>
       <c r="DB4">
-        <v>995.3200995358796</v>
+        <v>16.32574295849869</v>
       </c>
       <c r="DC4">
-        <v>3065.73383746115</v>
+        <v>3.46585248566503</v>
       </c>
       <c r="DD4">
-        <v>387.114244693347</v>
+        <v>0.3487327948612127</v>
       </c>
       <c r="DE4">
-        <v>1229.776306096569</v>
+        <v>7.498712568840432</v>
       </c>
       <c r="DF4">
-        <v>470.3575813037925</v>
+        <v>0.3737477508973689</v>
       </c>
       <c r="DG4">
-        <v>0.3641202880542665</v>
+        <v>3.977107199524462</v>
       </c>
       <c r="DH4">
-        <v>586.4994247799397</v>
+        <v>30.68737155303811</v>
       </c>
       <c r="DI4">
-        <v>1995.297681251497</v>
+        <v>0.3611760982051249</v>
       </c>
       <c r="DJ4">
-        <v>690.097690671018</v>
+        <v>0.3352298908914402</v>
       </c>
       <c r="DK4">
-        <v>703.8740674263479</v>
+        <v>0.3425240796853489</v>
       </c>
       <c r="DL4">
-        <v>311.3017262779496</v>
+        <v>0.3508202551703726</v>
       </c>
       <c r="DM4">
-        <v>492.8294001594829</v>
+        <v>36.07983303611094</v>
       </c>
       <c r="DN4">
-        <v>132.3400040114168</v>
+        <v>0.3552317898944992</v>
       </c>
       <c r="DO4">
-        <v>328.2807136608388</v>
+        <v>0.3454074381583926</v>
       </c>
       <c r="DP4">
-        <v>300.2541305911809</v>
+        <v>0.35095167044871</v>
       </c>
       <c r="DQ4">
-        <v>2.935219338587619</v>
+        <v>1.132510362667027</v>
       </c>
       <c r="DR4">
-        <v>0.3340681792865639</v>
+        <v>0.3541983247587417</v>
       </c>
       <c r="DS4">
-        <v>531.7456546298092</v>
+        <v>0.4218274432136475</v>
       </c>
       <c r="DT4">
-        <v>636.3420456348011</v>
+        <v>0.3423524574015072</v>
       </c>
       <c r="DU4">
-        <v>0.3337749650758007</v>
+        <v>9.34388414119001</v>
       </c>
       <c r="DV4">
-        <v>1238.346125995342</v>
+        <v>0.4660379547919183</v>
       </c>
       <c r="DW4">
-        <v>562.6653312426812</v>
+        <v>0.3429561274345731</v>
       </c>
       <c r="DX4">
-        <v>0.3339113796677964</v>
+        <v>0.3367881978600368</v>
       </c>
       <c r="DY4">
-        <v>0.3345154973479205</v>
+        <v>2.076736059134358</v>
       </c>
       <c r="DZ4">
-        <v>1574.861494488086</v>
+        <v>7.275123691340131</v>
       </c>
       <c r="EA4">
-        <v>1514.145748486253</v>
+        <v>0.3487728655626052</v>
       </c>
       <c r="EB4">
-        <v>712.5006817074585</v>
+        <v>7.142612543418317</v>
       </c>
       <c r="EC4">
-        <v>133.7461081771284</v>
+        <v>34.87499415040094</v>
       </c>
       <c r="ED4">
-        <v>818.2447522050081</v>
+        <v>4.854957288246158</v>
       </c>
       <c r="EE4">
-        <v>507.2320179653121</v>
+        <v>2.074540861751429</v>
       </c>
       <c r="EF4">
-        <v>1089.229544778467</v>
+        <v>0.3471662962524009</v>
       </c>
       <c r="EG4">
-        <v>0.3761759183701732</v>
+        <v>77.041348488381</v>
       </c>
       <c r="EH4">
-        <v>9645.837215746858</v>
+        <v>0.4149886869111415</v>
       </c>
       <c r="EI4">
-        <v>0.3421419874197948</v>
+        <v>15.9002730703616</v>
       </c>
       <c r="EJ4">
-        <v>0.3542268541527601</v>
+        <v>16.58761605656047</v>
       </c>
       <c r="EK4">
-        <v>706.6226442168544</v>
+        <v>2.268609254759684</v>
       </c>
       <c r="EL4">
-        <v>1516.619904433746</v>
+        <v>39.01170742886016</v>
       </c>
       <c r="EM4">
-        <v>3.906140083637867</v>
+        <v>4.722496915470292</v>
       </c>
       <c r="EN4">
-        <v>88.22703839995742</v>
+        <v>4.462995829203492</v>
       </c>
       <c r="EO4">
-        <v>2455.797627439786</v>
+        <v>6.995851134277841</v>
       </c>
       <c r="EP4">
-        <v>878.7356101779624</v>
+        <v>9.639236761078882</v>
       </c>
       <c r="EQ4">
-        <v>1478.456839422469</v>
+        <v>12.80452474148136</v>
       </c>
       <c r="ER4">
-        <v>11.24894432358787</v>
+        <v>10.1461673984705</v>
       </c>
       <c r="ES4">
-        <v>0.376523595283662</v>
+        <v>0.3922132450990178</v>
       </c>
       <c r="ET4">
-        <v>3449.467106848207</v>
+        <v>5.779445882429573</v>
       </c>
       <c r="EU4">
-        <v>492.5249637041213</v>
+        <v>0.3711468795435082</v>
       </c>
       <c r="EV4">
-        <v>967.8130420500602</v>
+        <v>0.3532403628598205</v>
       </c>
       <c r="EW4">
-        <v>0.3375481824651009</v>
+        <v>0.4105169428419643</v>
       </c>
       <c r="EX4">
-        <v>12.45651670534179</v>
+        <v>0.4974446414719592</v>
       </c>
       <c r="EY4">
-        <v>0.3404698785324041</v>
+        <v>0.3486886651142851</v>
       </c>
       <c r="EZ4">
-        <v>349.5747477163961</v>
+        <v>6.337814370794693</v>
       </c>
       <c r="FA4">
-        <v>1544.573376938705</v>
+        <v>18.78249237801412</v>
       </c>
       <c r="FB4">
-        <v>0.3476568086467023</v>
+        <v>2.269621036789601</v>
       </c>
       <c r="FC4">
-        <v>212.328690660534</v>
+        <v>0.3713835659955113</v>
       </c>
       <c r="FD4">
-        <v>682.7941833955921</v>
+        <v>0.3411352505521232</v>
       </c>
       <c r="FE4">
-        <v>3055.499508842207</v>
+        <v>0.3485890424510358</v>
       </c>
       <c r="FF4">
-        <v>594.2574431870522</v>
+        <v>0.3775171131343878</v>
       </c>
       <c r="FG4">
-        <v>824.6093342096652</v>
+        <v>1.687532264672098</v>
       </c>
       <c r="FH4">
-        <v>983.15207362259</v>
+        <v>5.047594663839156</v>
       </c>
       <c r="FI4">
-        <v>678.280433443548</v>
+        <v>0.3639374564648061</v>
       </c>
       <c r="FJ4">
-        <v>170.3555493969704</v>
+        <v>7.398351610544815</v>
       </c>
       <c r="FK4">
-        <v>707.4307348175724</v>
+        <v>0.3518801148093636</v>
       </c>
       <c r="FL4">
-        <v>829.3088587568196</v>
+        <v>0.5001151814349503</v>
       </c>
       <c r="FM4">
-        <v>990.507657621368</v>
+        <v>7.836167369756962</v>
       </c>
       <c r="FN4">
-        <v>1151.67971962516</v>
+        <v>0.7061186698951427</v>
       </c>
       <c r="FO4">
-        <v>547.2164058230043</v>
+        <v>0.3406235871545082</v>
       </c>
       <c r="FP4">
-        <v>347.7618722960883</v>
+        <v>10.15739945657753</v>
       </c>
       <c r="FQ4">
-        <v>819.2543124550918</v>
+        <v>5.659306603652188</v>
       </c>
       <c r="FR4">
-        <v>0.3408712452123828</v>
+        <v>0.3480502985657533</v>
       </c>
       <c r="FS4">
-        <v>615.2388256617965</v>
+        <v>0.3785718596179055</v>
       </c>
       <c r="FT4">
-        <v>0.3447770063223326</v>
+        <v>11.35657181715495</v>
       </c>
       <c r="FU4">
-        <v>0.3420005108342056</v>
+        <v>2.357414140215149</v>
       </c>
       <c r="FV4">
-        <v>0.3497439059032534</v>
+        <v>0.4587104336679941</v>
       </c>
       <c r="FW4">
-        <v>544.0114587453011</v>
+        <v>9.242855077695921</v>
       </c>
       <c r="FX4">
-        <v>1039.205415412102</v>
+        <v>0.3706104816625241</v>
       </c>
       <c r="FY4">
-        <v>1057.708223618935</v>
+        <v>0.3360882002366715</v>
       </c>
       <c r="FZ4">
-        <v>1588.33415011273</v>
+        <v>0.3508334684755496</v>
       </c>
       <c r="GA4">
-        <v>901.2951919171951</v>
+        <v>10.76472665964663</v>
       </c>
       <c r="GB4">
-        <v>199.3177496464025</v>
+        <v>12.57768271280688</v>
       </c>
       <c r="GC4">
-        <v>211.3191826911502</v>
+        <v>0.3388112186757932</v>
       </c>
       <c r="GD4">
-        <v>640.0682352193676</v>
+        <v>0.3371291702878241</v>
       </c>
       <c r="GE4">
-        <v>0.3344435195960565</v>
+        <v>0.3859189657221941</v>
       </c>
       <c r="GF4">
-        <v>3.786278456550027</v>
+        <v>0.3412322386362231</v>
       </c>
       <c r="GG4">
-        <v>119.32154989362</v>
+        <v>8.118437445668038</v>
       </c>
       <c r="GH4">
-        <v>2824.388983494524</v>
+        <v>7.444397988410534</v>
       </c>
       <c r="GI4">
-        <v>0.3392818633443559</v>
+        <v>0.3428972143223279</v>
       </c>
       <c r="GJ4">
-        <v>4486.001385798618</v>
+        <v>5.399772782403319</v>
       </c>
       <c r="GK4">
-        <v>1459.92998494629</v>
+        <v>11.58905891389504</v>
       </c>
       <c r="GL4">
-        <v>261.2610891247086</v>
+        <v>24.86191540141319</v>
       </c>
       <c r="GM4">
-        <v>13.3258314814043</v>
+        <v>4.344162944765748</v>
       </c>
       <c r="GN4">
-        <v>1.632393244904956</v>
+        <v>0.3694822159648481</v>
       </c>
       <c r="GO4">
-        <v>557.5285612010397</v>
+        <v>0.3412367419517756</v>
       </c>
       <c r="GP4">
-        <v>0.3446162197530377</v>
+        <v>0.35068898800601</v>
       </c>
       <c r="GQ4">
-        <v>547.5440823212342</v>
+        <v>0.4880674890739497</v>
       </c>
       <c r="GR4">
-        <v>0.383142910876084</v>
+        <v>91.48546035088133</v>
       </c>
       <c r="GS4">
-        <v>0.3433848393015109</v>
+        <v>16.08139813015908</v>
+      </c>
+      <c r="GT4">
+        <v>0.3383978902261296</v>
+      </c>
+      <c r="GU4">
+        <v>3.047860525653072</v>
+      </c>
+      <c r="GV4">
+        <v>0.3677847678337335</v>
+      </c>
+      <c r="GW4">
+        <v>0.3347043258373201</v>
+      </c>
+      <c r="GX4">
+        <v>10.43153990428198</v>
+      </c>
+      <c r="GY4">
+        <v>16.91510861565894</v>
+      </c>
+      <c r="GZ4">
+        <v>28.30728966413653</v>
+      </c>
+      <c r="HA4">
+        <v>2.041132343315544</v>
+      </c>
+      <c r="HB4">
+        <v>4.838328294529735</v>
+      </c>
+      <c r="HC4">
+        <v>3.698428028964277</v>
+      </c>
+      <c r="HD4">
+        <v>31.25397156216399</v>
+      </c>
+      <c r="HE4">
+        <v>12.86444544121118</v>
+      </c>
+      <c r="HF4">
+        <v>7.397500958738746</v>
+      </c>
+      <c r="HG4">
+        <v>0.3663119714797346</v>
+      </c>
+      <c r="HH4">
+        <v>34.69855686902497</v>
+      </c>
+      <c r="HI4">
+        <v>4.875656337187872</v>
+      </c>
+      <c r="HJ4">
+        <v>1.206646418081827</v>
+      </c>
+      <c r="HK4">
+        <v>0.4226180061582152</v>
+      </c>
+      <c r="HL4">
+        <v>0.383672065388607</v>
+      </c>
+      <c r="HM4">
+        <v>2.341944863884753</v>
+      </c>
+      <c r="HN4">
+        <v>16.13803855364292</v>
+      </c>
+      <c r="HO4">
+        <v>0.4922074673943468</v>
+      </c>
+      <c r="HP4">
+        <v>0.3820975967199127</v>
+      </c>
+      <c r="HQ4">
+        <v>2.695026263451457</v>
+      </c>
+      <c r="HR4">
+        <v>7.042932686439718</v>
+      </c>
+      <c r="HS4">
+        <v>3.171490252495706</v>
+      </c>
+      <c r="HT4">
+        <v>0.3873493491664184</v>
+      </c>
+      <c r="HU4">
+        <v>5.520469394543495</v>
+      </c>
+      <c r="HV4">
+        <v>0.7703797376340185</v>
+      </c>
+      <c r="HW4">
+        <v>2.686606697558164</v>
+      </c>
+      <c r="HX4">
+        <v>6.931479151042503</v>
+      </c>
+      <c r="HY4">
+        <v>0.3624331867086624</v>
+      </c>
+      <c r="HZ4">
+        <v>0.3416172037340599</v>
+      </c>
+      <c r="IA4">
+        <v>5.372295443227443</v>
+      </c>
+      <c r="IB4">
+        <v>0.3625389756480698</v>
+      </c>
+      <c r="IC4">
+        <v>6.344557764611749</v>
+      </c>
+      <c r="ID4">
+        <v>2.585201039347802</v>
+      </c>
+      <c r="IE4">
+        <v>42.22545432652529</v>
+      </c>
+      <c r="IF4">
+        <v>1.390246395200379</v>
+      </c>
+      <c r="IG4">
+        <v>4.102332483227942</v>
+      </c>
+      <c r="IH4">
+        <v>103.5024948845966</v>
+      </c>
+      <c r="II4">
+        <v>6.696735476238911</v>
+      </c>
+      <c r="IJ4">
+        <v>6.729758154741381</v>
+      </c>
+      <c r="IK4">
+        <v>3.358721597095461</v>
+      </c>
+      <c r="IL4">
+        <v>1.457209966504488</v>
+      </c>
+      <c r="IM4">
+        <v>4.139580554195799</v>
+      </c>
+      <c r="IN4">
+        <v>94.34848585356015</v>
+      </c>
+      <c r="IO4">
+        <v>8.571032529358172</v>
+      </c>
+      <c r="IP4">
+        <v>3.558725945822129</v>
+      </c>
+      <c r="IQ4">
+        <v>8.617194490738791</v>
+      </c>
+      <c r="IR4">
+        <v>0.4299996694266567</v>
+      </c>
+      <c r="IS4">
+        <v>0.3670639410888759</v>
+      </c>
+      <c r="IT4">
+        <v>0.4423228546357021</v>
+      </c>
+      <c r="IU4">
+        <v>0.336059286762228</v>
+      </c>
+      <c r="IV4">
+        <v>0.3510408326285189</v>
+      </c>
+      <c r="IW4">
+        <v>18.76738215442208</v>
+      </c>
+      <c r="IX4">
+        <v>0.360639617845872</v>
+      </c>
+      <c r="IY4">
+        <v>57.10528333566012</v>
+      </c>
+      <c r="IZ4">
+        <v>0.3481876136796937</v>
+      </c>
+      <c r="JA4">
+        <v>0.3377955558090235</v>
+      </c>
+      <c r="JB4">
+        <v>0.3418883673871281</v>
+      </c>
+      <c r="JC4">
+        <v>0.3516961513897333</v>
+      </c>
+      <c r="JD4">
+        <v>33.54634125382138</v>
+      </c>
+      <c r="JE4">
+        <v>24.25643751473808</v>
+      </c>
+      <c r="JF4">
+        <v>8.301594028084697</v>
+      </c>
+      <c r="JG4">
+        <v>2.860973908872678</v>
+      </c>
+      <c r="JH4">
+        <v>8.675798032790912</v>
+      </c>
+      <c r="JI4">
+        <v>0.3368900097766827</v>
+      </c>
+      <c r="JJ4">
+        <v>0.3361655874595436</v>
+      </c>
+      <c r="JK4">
+        <v>0.3349220761148803</v>
+      </c>
+      <c r="JL4">
+        <v>0.3727250405989671</v>
+      </c>
+      <c r="JM4">
+        <v>0.3563792866452429</v>
+      </c>
+      <c r="JN4">
+        <v>8.255669891871678</v>
+      </c>
+      <c r="JO4">
+        <v>3.479263530162477</v>
+      </c>
+      <c r="JP4">
+        <v>0.3517441732500793</v>
+      </c>
+      <c r="JQ4">
+        <v>0.3385792639777535</v>
+      </c>
+      <c r="JR4">
+        <v>0.357104001322419</v>
+      </c>
+      <c r="JS4">
+        <v>0.3383710441284957</v>
+      </c>
+      <c r="JT4">
+        <v>0.3466782608840308</v>
+      </c>
+      <c r="JU4">
+        <v>0.3384918115190909</v>
+      </c>
+      <c r="JV4">
+        <v>4.651766806734697</v>
+      </c>
+      <c r="JW4">
+        <v>6.94881943334712</v>
+      </c>
+      <c r="JX4">
+        <v>3.695425451879141</v>
+      </c>
+      <c r="JY4">
+        <v>0.3933191179318768</v>
+      </c>
+      <c r="JZ4">
+        <v>0.3401868182878169</v>
+      </c>
+      <c r="KA4">
+        <v>9.081006859601336</v>
+      </c>
+      <c r="KB4">
+        <v>4.614002345184533</v>
+      </c>
+      <c r="KC4">
+        <v>4.490104357287962</v>
+      </c>
+      <c r="KD4">
+        <v>0.3411098579813927</v>
+      </c>
+      <c r="KE4">
+        <v>5.127382809029029</v>
+      </c>
+      <c r="KF4">
+        <v>0.3844041796377055</v>
+      </c>
+      <c r="KG4">
+        <v>7.591953849115223</v>
+      </c>
+      <c r="KH4">
+        <v>12.41304415393925</v>
+      </c>
+      <c r="KI4">
+        <v>9.745943968044921</v>
+      </c>
+      <c r="KJ4">
+        <v>3.987359596753183</v>
+      </c>
+      <c r="KK4">
+        <v>0.3883317448975465</v>
+      </c>
+      <c r="KL4">
+        <v>0.352656850205848</v>
+      </c>
+      <c r="KM4">
+        <v>0.3450273151518395</v>
+      </c>
+      <c r="KN4">
+        <v>2.360052312786064</v>
+      </c>
+      <c r="KO4">
+        <v>0.4046431049062131</v>
+      </c>
+      <c r="KP4">
+        <v>12.62748229647407</v>
+      </c>
+      <c r="KQ4">
+        <v>8.586399412510648</v>
+      </c>
+      <c r="KR4">
+        <v>2.330532889332871</v>
+      </c>
+      <c r="KS4">
+        <v>0.3392892630094488</v>
+      </c>
+      <c r="KT4">
+        <v>0.3433758359707144</v>
+      </c>
+      <c r="KU4">
+        <v>26.1091979067321</v>
+      </c>
+      <c r="KV4">
+        <v>24.0593078650442</v>
+      </c>
+      <c r="KW4">
+        <v>7.084176975326383</v>
+      </c>
+      <c r="KX4">
+        <v>0.4131005921253775</v>
+      </c>
+      <c r="KY4">
+        <v>0.3687751972931972</v>
+      </c>
+      <c r="KZ4">
+        <v>1.583991432938282</v>
+      </c>
+      <c r="LA4">
+        <v>48.52365426400105</v>
+      </c>
+      <c r="LB4">
+        <v>0.3429179943467326</v>
+      </c>
+      <c r="LC4">
+        <v>0.3793524331315297</v>
+      </c>
+      <c r="LD4">
+        <v>1.267786187725558</v>
+      </c>
+      <c r="LE4">
+        <v>0.3612675053967914</v>
+      </c>
+      <c r="LF4">
+        <v>12.41897433488298</v>
+      </c>
+      <c r="LG4">
+        <v>41.58499678620166</v>
+      </c>
+      <c r="LH4">
+        <v>21.41195920885235</v>
+      </c>
+      <c r="LI4">
+        <v>3.417282891321352</v>
+      </c>
+      <c r="LJ4">
+        <v>0.339045541329523</v>
+      </c>
+      <c r="LK4">
+        <v>6.480761049536437</v>
+      </c>
+      <c r="LL4">
+        <v>0.3506067799855991</v>
+      </c>
+      <c r="LM4">
+        <v>0.6883391217165904</v>
+      </c>
+      <c r="LN4">
+        <v>0.4080103075256527</v>
+      </c>
+      <c r="LO4">
+        <v>0.3736392135354549</v>
+      </c>
+      <c r="LP4">
+        <v>0.3408691936727752</v>
+      </c>
+      <c r="LQ4">
+        <v>2.701479523012493</v>
+      </c>
+      <c r="LR4">
+        <v>0.6691567099088673</v>
+      </c>
+      <c r="LS4">
+        <v>0.3951458128592118</v>
+      </c>
+      <c r="LT4">
+        <v>0.3498909515342976</v>
+      </c>
+      <c r="LU4">
+        <v>8.028955433390166</v>
+      </c>
+      <c r="LV4">
+        <v>0.4161414208326945</v>
+      </c>
+      <c r="LW4">
+        <v>0.3891612119894013</v>
+      </c>
+      <c r="LX4">
+        <v>33.15802888266485</v>
+      </c>
+      <c r="LY4">
+        <v>7.373433881015464</v>
+      </c>
+      <c r="LZ4">
+        <v>64.6247559728223</v>
+      </c>
+      <c r="MA4">
+        <v>0.3653342878867978</v>
+      </c>
+      <c r="MB4">
+        <v>9.334050113558964</v>
+      </c>
+      <c r="MC4">
+        <v>24.40303235977545</v>
+      </c>
+      <c r="MD4">
+        <v>0.344215192824798</v>
+      </c>
+      <c r="ME4">
+        <v>0.3504167234207279</v>
+      </c>
+      <c r="MF4">
+        <v>0.3787175754675487</v>
+      </c>
+      <c r="MG4">
+        <v>0.3352316408961812</v>
+      </c>
+      <c r="MH4">
+        <v>17.98773419505789</v>
+      </c>
+      <c r="MI4">
+        <v>29.61751182974769</v>
+      </c>
+      <c r="MJ4">
+        <v>0.3542156208203333</v>
+      </c>
+      <c r="MK4">
+        <v>0.3360575847104896</v>
+      </c>
+      <c r="ML4">
+        <v>18.71501687921211</v>
+      </c>
+      <c r="MM4">
+        <v>3.85162730243159</v>
+      </c>
+      <c r="MN4">
+        <v>0.3423458239070867</v>
+      </c>
+      <c r="MO4">
+        <v>0.3384043574046421</v>
+      </c>
+      <c r="MP4">
+        <v>0.3507562024514947</v>
+      </c>
+      <c r="MQ4">
+        <v>7.24096124390565</v>
+      </c>
+      <c r="MR4">
+        <v>43.54969482911525</v>
+      </c>
+      <c r="MS4">
+        <v>1.430162766129821</v>
+      </c>
+      <c r="MT4">
+        <v>0.3946146609472321</v>
+      </c>
+      <c r="MU4">
+        <v>0.3723522719569241</v>
+      </c>
+      <c r="MV4">
+        <v>0.3344488294725319</v>
+      </c>
+      <c r="MW4">
+        <v>2.649164539439314</v>
+      </c>
+      <c r="MX4">
+        <v>2.482456974942103</v>
+      </c>
+      <c r="MY4">
+        <v>0.4089185184605882</v>
+      </c>
+      <c r="MZ4">
+        <v>0.3533858238434286</v>
+      </c>
+      <c r="NA4">
+        <v>31.70865601467235</v>
+      </c>
+      <c r="NB4">
+        <v>0.3569443005631365</v>
+      </c>
+      <c r="NC4">
+        <v>0.3396899192697629</v>
+      </c>
+      <c r="ND4">
+        <v>12.71830657447273</v>
+      </c>
+      <c r="NE4">
+        <v>0.3412985964589044</v>
+      </c>
+      <c r="NF4">
+        <v>4.968497224340478</v>
+      </c>
+      <c r="NG4">
+        <v>0.3480186923529164</v>
+      </c>
+      <c r="NH4">
+        <v>0.3414133420341762</v>
+      </c>
+      <c r="NI4">
+        <v>0.3497747960237154</v>
+      </c>
+      <c r="NJ4">
+        <v>0.337436337606828</v>
+      </c>
+      <c r="NK4">
+        <v>0.3384814324867457</v>
+      </c>
+      <c r="NL4">
+        <v>0.3879217436425942</v>
+      </c>
+      <c r="NM4">
+        <v>0.3385235290114488</v>
+      </c>
+      <c r="NN4">
+        <v>18.16459388015518</v>
+      </c>
+      <c r="NO4">
+        <v>0.3595756550849081</v>
+      </c>
+      <c r="NP4">
+        <v>3.509777952437202</v>
+      </c>
+      <c r="NQ4">
+        <v>0.4599997421462774</v>
+      </c>
+      <c r="NR4">
+        <v>54.0012021304512</v>
+      </c>
+      <c r="NS4">
+        <v>31.72965442738123</v>
+      </c>
+      <c r="NT4">
+        <v>3.810862520533189</v>
+      </c>
+      <c r="NU4">
+        <v>2.612783371255196</v>
+      </c>
+      <c r="NV4">
+        <v>6.367700055305928</v>
+      </c>
+      <c r="NW4">
+        <v>24.32003084077985</v>
+      </c>
+      <c r="NX4">
+        <v>9.087940322269873</v>
+      </c>
+      <c r="NY4">
+        <v>6.01344374525749</v>
+      </c>
+      <c r="NZ4">
+        <v>0.4294712221221489</v>
+      </c>
+      <c r="OA4">
+        <v>0.4466175782042505</v>
+      </c>
+      <c r="OB4">
+        <v>31.89752272735431</v>
+      </c>
+      <c r="OC4">
+        <v>6.681781738294135</v>
+      </c>
+      <c r="OD4">
+        <v>9.764322795361084</v>
+      </c>
+      <c r="OE4">
+        <v>0.33732152537594</v>
+      </c>
+      <c r="OF4">
+        <v>4.413624190413358</v>
+      </c>
+      <c r="OG4">
+        <v>2.635269897828555</v>
+      </c>
+      <c r="OH4">
+        <v>7.698903985937064</v>
+      </c>
+      <c r="OI4">
+        <v>1.797063926478224</v>
+      </c>
+      <c r="OJ4">
+        <v>6.177297199215869</v>
+      </c>
+      <c r="OK4">
+        <v>1.25609262196687</v>
       </c>
     </row>
   </sheetData>
